--- a/Zeitplan-BA.xlsx
+++ b/Zeitplan-BA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2037841-AB91-D849-AA86-19575809A39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A309C57A-575A-4771-A571-9EE26016955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BA" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
   <si>
     <t>Prüfung</t>
   </si>
@@ -394,15 +394,6 @@
     <t xml:space="preserve">Forschungsstand </t>
   </si>
   <si>
-    <t xml:space="preserve">Methodik schreiben </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergebnisse für erste Fokusrunde  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergebnisse für zweite Fokusrunde </t>
-  </si>
-  <si>
     <t xml:space="preserve">Diskussion </t>
   </si>
   <si>
@@ -417,12 +408,36 @@
   <si>
     <t>Usability Evalution</t>
   </si>
+  <si>
+    <t>Motivation und Problem</t>
+  </si>
+  <si>
+    <t>COMTRAC-App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zielsetzung und Forschungsfrage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufbau der Arbeit </t>
+  </si>
+  <si>
+    <t>Ergebnisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergebnisse für die Anforderungsanalyse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methodik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anforderungsanalyse für die Bedienbarkeit </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,8 +476,19 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +525,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="63">
     <border>
@@ -1322,7 +1360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1630,6 +1668,42 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1638,18 +1712,18 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1694,40 +1768,34 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2023,162 +2091,162 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CV46"/>
+  <dimension ref="A1:CV53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN14" sqref="BN14:CV14"/>
+      <selection pane="topRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="47" width="3.83203125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="3.83203125" style="65" customWidth="1"/>
-    <col min="49" max="50" width="3.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="47" width="3.85546875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="3.85546875" style="65" customWidth="1"/>
+    <col min="49" max="50" width="3.85546875" style="1" customWidth="1"/>
     <col min="51" max="51" width="4" style="1" customWidth="1"/>
-    <col min="52" max="128" width="3.83203125" style="1" customWidth="1"/>
-    <col min="129" max="16384" width="8.83203125" style="1"/>
+    <col min="52" max="128" width="3.85546875" style="1" customWidth="1"/>
+    <col min="129" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:100" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="101" t="s">
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="110" t="s">
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="110" t="s">
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="97" t="s">
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="98"/>
-      <c r="AG1" s="98"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="97" t="s">
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="98"/>
-      <c r="AN1" s="98"/>
-      <c r="AO1" s="98"/>
-      <c r="AP1" s="98"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="100"/>
-      <c r="AS1" s="101" t="s">
+      <c r="AM1" s="110"/>
+      <c r="AN1" s="110"/>
+      <c r="AO1" s="110"/>
+      <c r="AP1" s="110"/>
+      <c r="AQ1" s="110"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="97" t="s">
+      <c r="AT1" s="110"/>
+      <c r="AU1" s="110"/>
+      <c r="AV1" s="110"/>
+      <c r="AW1" s="110"/>
+      <c r="AX1" s="110"/>
+      <c r="AY1" s="113"/>
+      <c r="AZ1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="BA1" s="98"/>
-      <c r="BB1" s="98"/>
-      <c r="BC1" s="98"/>
-      <c r="BD1" s="98"/>
-      <c r="BE1" s="98"/>
-      <c r="BF1" s="99"/>
-      <c r="BG1" s="97" t="s">
+      <c r="BA1" s="110"/>
+      <c r="BB1" s="110"/>
+      <c r="BC1" s="110"/>
+      <c r="BD1" s="110"/>
+      <c r="BE1" s="110"/>
+      <c r="BF1" s="113"/>
+      <c r="BG1" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="BH1" s="98"/>
-      <c r="BI1" s="98"/>
-      <c r="BJ1" s="98"/>
-      <c r="BK1" s="98"/>
-      <c r="BL1" s="98"/>
-      <c r="BM1" s="99"/>
-      <c r="BN1" s="97" t="s">
+      <c r="BH1" s="110"/>
+      <c r="BI1" s="110"/>
+      <c r="BJ1" s="110"/>
+      <c r="BK1" s="110"/>
+      <c r="BL1" s="110"/>
+      <c r="BM1" s="113"/>
+      <c r="BN1" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="BO1" s="98"/>
-      <c r="BP1" s="98"/>
-      <c r="BQ1" s="98"/>
-      <c r="BR1" s="98"/>
-      <c r="BS1" s="98"/>
-      <c r="BT1" s="99"/>
-      <c r="BU1" s="97" t="s">
+      <c r="BO1" s="110"/>
+      <c r="BP1" s="110"/>
+      <c r="BQ1" s="110"/>
+      <c r="BR1" s="110"/>
+      <c r="BS1" s="110"/>
+      <c r="BT1" s="113"/>
+      <c r="BU1" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="BV1" s="98"/>
-      <c r="BW1" s="98"/>
-      <c r="BX1" s="98"/>
-      <c r="BY1" s="98"/>
-      <c r="BZ1" s="98"/>
-      <c r="CA1" s="99"/>
-      <c r="CB1" s="97" t="s">
+      <c r="BV1" s="110"/>
+      <c r="BW1" s="110"/>
+      <c r="BX1" s="110"/>
+      <c r="BY1" s="110"/>
+      <c r="BZ1" s="110"/>
+      <c r="CA1" s="113"/>
+      <c r="CB1" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="CC1" s="98"/>
-      <c r="CD1" s="98"/>
-      <c r="CE1" s="98"/>
-      <c r="CF1" s="98"/>
-      <c r="CG1" s="98"/>
-      <c r="CH1" s="99"/>
-      <c r="CI1" s="97" t="s">
+      <c r="CC1" s="110"/>
+      <c r="CD1" s="110"/>
+      <c r="CE1" s="110"/>
+      <c r="CF1" s="110"/>
+      <c r="CG1" s="110"/>
+      <c r="CH1" s="113"/>
+      <c r="CI1" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="CJ1" s="98"/>
-      <c r="CK1" s="98"/>
-      <c r="CL1" s="98"/>
-      <c r="CM1" s="98"/>
-      <c r="CN1" s="98"/>
-      <c r="CO1" s="99"/>
-      <c r="CP1" s="97" t="s">
+      <c r="CJ1" s="110"/>
+      <c r="CK1" s="110"/>
+      <c r="CL1" s="110"/>
+      <c r="CM1" s="110"/>
+      <c r="CN1" s="110"/>
+      <c r="CO1" s="113"/>
+      <c r="CP1" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="CQ1" s="98"/>
-      <c r="CR1" s="98"/>
-      <c r="CS1" s="98"/>
-      <c r="CT1" s="98"/>
-      <c r="CU1" s="98"/>
-      <c r="CV1" s="99"/>
+      <c r="CQ1" s="110"/>
+      <c r="CR1" s="110"/>
+      <c r="CS1" s="110"/>
+      <c r="CT1" s="110"/>
+      <c r="CU1" s="110"/>
+      <c r="CV1" s="113"/>
     </row>
-    <row r="2" spans="1:100" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="105"/>
+    <row r="2" spans="1:100" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="115"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
@@ -2474,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -2580,7 +2648,7 @@
       <c r="CU3" s="9"/>
       <c r="CV3" s="10"/>
     </row>
-    <row r="4" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="84"/>
       <c r="B4" s="83"/>
       <c r="C4" s="36"/>
@@ -2682,8 +2750,8 @@
       <c r="CU4" s="14"/>
       <c r="CV4" s="15"/>
     </row>
-    <row r="5" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
+    <row r="5" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="127" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="78"/>
@@ -2786,19 +2854,19 @@
       <c r="CU5" s="14"/>
       <c r="CV5" s="15"/>
     </row>
-    <row r="6" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="81" t="s">
-        <v>30</v>
+    <row r="6" spans="1:100" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="126" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="94"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
       <c r="F6" s="91"/>
       <c r="G6" s="91"/>
       <c r="H6" s="91"/>
       <c r="I6" s="92"/>
-      <c r="J6" s="91"/>
+      <c r="J6" s="94"/>
       <c r="K6" s="91"/>
       <c r="L6" s="91"/>
       <c r="M6" s="91"/>
@@ -2819,99 +2887,97 @@
       <c r="AB6" s="26"/>
       <c r="AC6" s="26"/>
       <c r="AD6" s="28"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="52"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="51"/>
       <c r="AS6" s="46"/>
       <c r="AT6" s="25"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="58"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="11"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="9"/>
-      <c r="BT6" s="10"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="8"/>
-      <c r="BW6" s="9"/>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="9"/>
-      <c r="BZ6" s="9"/>
-      <c r="CA6" s="10"/>
-      <c r="CB6" s="11"/>
-      <c r="CC6" s="8"/>
-      <c r="CD6" s="9"/>
-      <c r="CE6" s="9"/>
-      <c r="CF6" s="9"/>
-      <c r="CG6" s="9"/>
-      <c r="CH6" s="10"/>
-      <c r="CI6" s="11"/>
-      <c r="CJ6" s="8"/>
-      <c r="CK6" s="9"/>
-      <c r="CL6" s="9"/>
-      <c r="CM6" s="9"/>
-      <c r="CN6" s="9"/>
-      <c r="CO6" s="10"/>
-      <c r="CP6" s="11"/>
-      <c r="CQ6" s="8"/>
-      <c r="CR6" s="9"/>
-      <c r="CS6" s="9"/>
-      <c r="CT6" s="9"/>
-      <c r="CU6" s="9"/>
-      <c r="CV6" s="10"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="13"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="14"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="16"/>
+      <c r="BO6" s="13"/>
+      <c r="BP6" s="14"/>
+      <c r="BQ6" s="14"/>
+      <c r="BR6" s="14"/>
+      <c r="BS6" s="14"/>
+      <c r="BT6" s="15"/>
+      <c r="BU6" s="16"/>
+      <c r="BV6" s="13"/>
+      <c r="BW6" s="14"/>
+      <c r="BX6" s="14"/>
+      <c r="BY6" s="14"/>
+      <c r="BZ6" s="14"/>
+      <c r="CA6" s="15"/>
+      <c r="CB6" s="16"/>
+      <c r="CC6" s="13"/>
+      <c r="CD6" s="14"/>
+      <c r="CE6" s="14"/>
+      <c r="CF6" s="14"/>
+      <c r="CG6" s="14"/>
+      <c r="CH6" s="15"/>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="13"/>
+      <c r="CK6" s="14"/>
+      <c r="CL6" s="14"/>
+      <c r="CM6" s="14"/>
+      <c r="CN6" s="14"/>
+      <c r="CO6" s="15"/>
+      <c r="CP6" s="16"/>
+      <c r="CQ6" s="13"/>
+      <c r="CR6" s="14"/>
+      <c r="CS6" s="14"/>
+      <c r="CT6" s="14"/>
+      <c r="CU6" s="14"/>
+      <c r="CV6" s="15"/>
     </row>
-    <row r="7" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="81" t="s">
-        <v>31</v>
+    <row r="7" spans="1:100" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="126" t="s">
+        <v>38</v>
       </c>
       <c r="B7" s="78"/>
-      <c r="C7" s="95"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="91"/>
-      <c r="E7" s="95"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="91"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="95"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="92"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91" t="s">
-        <v>12</v>
-      </c>
+      <c r="J7" s="94"/>
+      <c r="K7" s="91"/>
       <c r="L7" s="91"/>
       <c r="M7" s="91"/>
       <c r="N7" s="91"/>
       <c r="O7" s="91"/>
       <c r="P7" s="92"/>
-      <c r="Q7" s="26"/>
+      <c r="Q7" s="27"/>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
@@ -2925,312 +2991,312 @@
       <c r="AB7" s="26"/>
       <c r="AC7" s="26"/>
       <c r="AD7" s="28"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="52"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="58"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="8"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9"/>
-      <c r="BF7" s="10"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="9"/>
-      <c r="BJ7" s="9"/>
-      <c r="BK7" s="9"/>
-      <c r="BL7" s="9"/>
-      <c r="BM7" s="10"/>
-      <c r="BN7" s="11"/>
-      <c r="BO7" s="8"/>
-      <c r="BP7" s="9"/>
-      <c r="BQ7" s="9"/>
-      <c r="BR7" s="9"/>
-      <c r="BS7" s="9"/>
-      <c r="BT7" s="10"/>
-      <c r="BU7" s="11"/>
-      <c r="BV7" s="8"/>
-      <c r="BW7" s="9"/>
-      <c r="BX7" s="9"/>
-      <c r="BY7" s="9"/>
-      <c r="BZ7" s="9"/>
-      <c r="CA7" s="10"/>
-      <c r="CB7" s="11"/>
-      <c r="CC7" s="8"/>
-      <c r="CD7" s="9"/>
-      <c r="CE7" s="9"/>
-      <c r="CF7" s="9"/>
-      <c r="CG7" s="9"/>
-      <c r="CH7" s="10"/>
-      <c r="CI7" s="11"/>
-      <c r="CJ7" s="8"/>
-      <c r="CK7" s="9"/>
-      <c r="CL7" s="9"/>
-      <c r="CM7" s="9"/>
-      <c r="CN7" s="9"/>
-      <c r="CO7" s="10"/>
-      <c r="CP7" s="11"/>
-      <c r="CQ7" s="8"/>
-      <c r="CR7" s="9"/>
-      <c r="CS7" s="9"/>
-      <c r="CT7" s="9"/>
-      <c r="CU7" s="9"/>
-      <c r="CV7" s="10"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="24"/>
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="13"/>
+      <c r="BP7" s="14"/>
+      <c r="BQ7" s="14"/>
+      <c r="BR7" s="14"/>
+      <c r="BS7" s="14"/>
+      <c r="BT7" s="15"/>
+      <c r="BU7" s="16"/>
+      <c r="BV7" s="13"/>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14"/>
+      <c r="BY7" s="14"/>
+      <c r="BZ7" s="14"/>
+      <c r="CA7" s="15"/>
+      <c r="CB7" s="16"/>
+      <c r="CC7" s="13"/>
+      <c r="CD7" s="14"/>
+      <c r="CE7" s="14"/>
+      <c r="CF7" s="14"/>
+      <c r="CG7" s="14"/>
+      <c r="CH7" s="15"/>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="13"/>
+      <c r="CK7" s="14"/>
+      <c r="CL7" s="14"/>
+      <c r="CM7" s="14"/>
+      <c r="CN7" s="14"/>
+      <c r="CO7" s="15"/>
+      <c r="CP7" s="16"/>
+      <c r="CQ7" s="13"/>
+      <c r="CR7" s="14"/>
+      <c r="CS7" s="14"/>
+      <c r="CT7" s="14"/>
+      <c r="CU7" s="14"/>
+      <c r="CV7" s="15"/>
     </row>
-    <row r="8" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="81" t="s">
-        <v>32</v>
+    <row r="8" spans="1:100" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="128" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="78"/>
-      <c r="C8" s="95"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="91"/>
-      <c r="E8" s="96"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="91"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="95"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="92"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="133"/>
       <c r="L8" s="91"/>
       <c r="M8" s="91"/>
       <c r="N8" s="91"/>
       <c r="O8" s="91"/>
       <c r="P8" s="92"/>
-      <c r="Q8" s="26"/>
+      <c r="Q8" s="27"/>
       <c r="R8" s="26"/>
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
       <c r="W8" s="28"/>
-      <c r="X8" s="26"/>
+      <c r="X8" s="27"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
       <c r="AB8" s="26"/>
       <c r="AC8" s="26"/>
       <c r="AD8" s="28"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="58"/>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="58"/>
-      <c r="AQ8" s="58"/>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="18"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="18"/>
-      <c r="BC8" s="17"/>
-      <c r="BD8" s="9"/>
-      <c r="BE8" s="9"/>
-      <c r="BF8" s="10"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="18"/>
-      <c r="BJ8" s="17"/>
-      <c r="BK8" s="9"/>
-      <c r="BL8" s="9"/>
-      <c r="BM8" s="10"/>
-      <c r="BN8" s="11"/>
-      <c r="BO8" s="8"/>
-      <c r="BP8" s="18"/>
-      <c r="BQ8" s="17"/>
-      <c r="BR8" s="9"/>
-      <c r="BS8" s="9"/>
-      <c r="BT8" s="10"/>
-      <c r="BU8" s="11"/>
-      <c r="BV8" s="8"/>
-      <c r="BW8" s="18"/>
-      <c r="BX8" s="17"/>
-      <c r="BY8" s="9"/>
-      <c r="BZ8" s="9"/>
-      <c r="CA8" s="10"/>
-      <c r="CB8" s="11"/>
-      <c r="CC8" s="8"/>
-      <c r="CD8" s="18"/>
-      <c r="CE8" s="17"/>
-      <c r="CF8" s="9"/>
-      <c r="CG8" s="9"/>
-      <c r="CH8" s="10"/>
-      <c r="CI8" s="11"/>
-      <c r="CJ8" s="8"/>
-      <c r="CK8" s="18"/>
-      <c r="CL8" s="17"/>
-      <c r="CM8" s="9"/>
-      <c r="CN8" s="9"/>
-      <c r="CO8" s="10"/>
-      <c r="CP8" s="11"/>
-      <c r="CQ8" s="8"/>
-      <c r="CR8" s="18"/>
-      <c r="CS8" s="17"/>
-      <c r="CT8" s="9"/>
-      <c r="CU8" s="9"/>
-      <c r="CV8" s="10"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="24"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="13"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="14"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="15"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="13"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
+      <c r="CA8" s="15"/>
+      <c r="CB8" s="16"/>
+      <c r="CC8" s="13"/>
+      <c r="CD8" s="14"/>
+      <c r="CE8" s="14"/>
+      <c r="CF8" s="14"/>
+      <c r="CG8" s="14"/>
+      <c r="CH8" s="15"/>
+      <c r="CI8" s="16"/>
+      <c r="CJ8" s="13"/>
+      <c r="CK8" s="14"/>
+      <c r="CL8" s="14"/>
+      <c r="CM8" s="14"/>
+      <c r="CN8" s="14"/>
+      <c r="CO8" s="15"/>
+      <c r="CP8" s="16"/>
+      <c r="CQ8" s="13"/>
+      <c r="CR8" s="14"/>
+      <c r="CS8" s="14"/>
+      <c r="CT8" s="14"/>
+      <c r="CU8" s="14"/>
+      <c r="CV8" s="15"/>
     </row>
-    <row r="9" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>33</v>
+    <row r="9" spans="1:100" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="128" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="28"/>
       <c r="AE9" s="16"/>
       <c r="AF9" s="13"/>
       <c r="AG9" s="14"/>
       <c r="AH9" s="14"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="59"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="15"/>
       <c r="AL9" s="16"/>
       <c r="AM9" s="13"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="58"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="11"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="18"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="9"/>
-      <c r="BE9" s="9"/>
-      <c r="BF9" s="10"/>
-      <c r="BG9" s="11"/>
-      <c r="BH9" s="8"/>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="9"/>
-      <c r="BL9" s="9"/>
-      <c r="BM9" s="10"/>
-      <c r="BN9" s="11"/>
-      <c r="BO9" s="8"/>
-      <c r="BP9" s="18"/>
-      <c r="BQ9" s="17"/>
-      <c r="BR9" s="9"/>
-      <c r="BS9" s="9"/>
-      <c r="BT9" s="10"/>
-      <c r="BU9" s="11"/>
-      <c r="BV9" s="8"/>
-      <c r="BW9" s="18"/>
-      <c r="BX9" s="17"/>
-      <c r="BY9" s="9"/>
-      <c r="BZ9" s="9"/>
-      <c r="CA9" s="10"/>
-      <c r="CB9" s="11"/>
-      <c r="CC9" s="8"/>
-      <c r="CD9" s="18"/>
-      <c r="CE9" s="17"/>
-      <c r="CF9" s="9"/>
-      <c r="CG9" s="9"/>
-      <c r="CH9" s="10"/>
-      <c r="CI9" s="11"/>
-      <c r="CJ9" s="8"/>
-      <c r="CK9" s="18"/>
-      <c r="CL9" s="17"/>
-      <c r="CM9" s="9"/>
-      <c r="CN9" s="9"/>
-      <c r="CO9" s="10"/>
-      <c r="CP9" s="11"/>
-      <c r="CQ9" s="8"/>
-      <c r="CR9" s="18"/>
-      <c r="CS9" s="17"/>
-      <c r="CT9" s="9"/>
-      <c r="CU9" s="9"/>
-      <c r="CV9" s="10"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="13"/>
+      <c r="BP9" s="14"/>
+      <c r="BQ9" s="14"/>
+      <c r="BR9" s="14"/>
+      <c r="BS9" s="14"/>
+      <c r="BT9" s="15"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="13"/>
+      <c r="BW9" s="14"/>
+      <c r="BX9" s="14"/>
+      <c r="BY9" s="14"/>
+      <c r="BZ9" s="14"/>
+      <c r="CA9" s="15"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="13"/>
+      <c r="CD9" s="14"/>
+      <c r="CE9" s="14"/>
+      <c r="CF9" s="14"/>
+      <c r="CG9" s="14"/>
+      <c r="CH9" s="15"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="13"/>
+      <c r="CK9" s="14"/>
+      <c r="CL9" s="14"/>
+      <c r="CM9" s="14"/>
+      <c r="CN9" s="14"/>
+      <c r="CO9" s="15"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="13"/>
+      <c r="CR9" s="14"/>
+      <c r="CS9" s="14"/>
+      <c r="CT9" s="14"/>
+      <c r="CU9" s="14"/>
+      <c r="CV9" s="15"/>
     </row>
-    <row r="10" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
-        <v>34</v>
+    <row r="10" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="125" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="26"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="27"/>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
       <c r="U10" s="26"/>
       <c r="V10" s="26"/>
       <c r="W10" s="28"/>
-      <c r="X10" s="26"/>
+      <c r="X10" s="27"/>
       <c r="Y10" s="26"/>
       <c r="Z10" s="26"/>
       <c r="AA10" s="26"/>
@@ -3241,92 +3307,94 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="59"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="10"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="8"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="57"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="57"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="52"/>
+      <c r="AS10" s="46"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="58"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
       <c r="AY10" s="10"/>
       <c r="AZ10" s="11"/>
       <c r="BA10" s="8"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="17"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
       <c r="BD10" s="9"/>
       <c r="BE10" s="9"/>
       <c r="BF10" s="10"/>
       <c r="BG10" s="11"/>
       <c r="BH10" s="8"/>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="17"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
       <c r="BK10" s="9"/>
       <c r="BL10" s="9"/>
       <c r="BM10" s="10"/>
       <c r="BN10" s="11"/>
       <c r="BO10" s="8"/>
-      <c r="BP10" s="18"/>
-      <c r="BQ10" s="17"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="9"/>
       <c r="BR10" s="9"/>
       <c r="BS10" s="9"/>
       <c r="BT10" s="10"/>
-      <c r="BU10" s="85"/>
-      <c r="BV10" s="86"/>
-      <c r="BW10" s="87"/>
-      <c r="BX10" s="88"/>
-      <c r="BY10" s="89"/>
-      <c r="BZ10" s="89"/>
-      <c r="CA10" s="90"/>
-      <c r="CB10" s="85"/>
-      <c r="CC10" s="86"/>
-      <c r="CD10" s="87"/>
-      <c r="CE10" s="88"/>
-      <c r="CF10" s="89"/>
-      <c r="CG10" s="89"/>
-      <c r="CH10" s="90"/>
+      <c r="BU10" s="11"/>
+      <c r="BV10" s="8"/>
+      <c r="BW10" s="9"/>
+      <c r="BX10" s="9"/>
+      <c r="BY10" s="9"/>
+      <c r="BZ10" s="9"/>
+      <c r="CA10" s="10"/>
+      <c r="CB10" s="11"/>
+      <c r="CC10" s="8"/>
+      <c r="CD10" s="9"/>
+      <c r="CE10" s="9"/>
+      <c r="CF10" s="9"/>
+      <c r="CG10" s="9"/>
+      <c r="CH10" s="10"/>
       <c r="CI10" s="11"/>
       <c r="CJ10" s="8"/>
-      <c r="CK10" s="18"/>
-      <c r="CL10" s="17"/>
+      <c r="CK10" s="9"/>
+      <c r="CL10" s="9"/>
       <c r="CM10" s="9"/>
       <c r="CN10" s="9"/>
       <c r="CO10" s="10"/>
       <c r="CP10" s="11"/>
       <c r="CQ10" s="8"/>
-      <c r="CR10" s="18"/>
-      <c r="CS10" s="17"/>
+      <c r="CR10" s="9"/>
+      <c r="CS10" s="9"/>
       <c r="CT10" s="9"/>
       <c r="CU10" s="9"/>
       <c r="CV10" s="10"/>
     </row>
-    <row r="11" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
-        <v>35</v>
+    <row r="11" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="125" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="78"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="28"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="134"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
@@ -3334,103 +3402,103 @@
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
       <c r="W11" s="28"/>
-      <c r="X11" s="26"/>
+      <c r="X11" s="27"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="26"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="28"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="57"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="18"/>
-      <c r="AV11" s="57"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="52"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="58"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
       <c r="AY11" s="10"/>
       <c r="AZ11" s="11"/>
       <c r="BA11" s="8"/>
-      <c r="BB11" s="18"/>
-      <c r="BC11" s="17"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
       <c r="BD11" s="9"/>
       <c r="BE11" s="9"/>
       <c r="BF11" s="10"/>
       <c r="BG11" s="11"/>
       <c r="BH11" s="8"/>
-      <c r="BI11" s="18"/>
-      <c r="BJ11" s="17"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="9"/>
       <c r="BK11" s="9"/>
       <c r="BL11" s="9"/>
       <c r="BM11" s="10"/>
       <c r="BN11" s="11"/>
       <c r="BO11" s="8"/>
-      <c r="BP11" s="18"/>
-      <c r="BQ11" s="17"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="9"/>
       <c r="BR11" s="9"/>
       <c r="BS11" s="9"/>
       <c r="BT11" s="10"/>
       <c r="BU11" s="11"/>
       <c r="BV11" s="8"/>
-      <c r="BW11" s="18"/>
-      <c r="BX11" s="17"/>
+      <c r="BW11" s="9"/>
+      <c r="BX11" s="9"/>
       <c r="BY11" s="9"/>
       <c r="BZ11" s="9"/>
       <c r="CA11" s="10"/>
       <c r="CB11" s="11"/>
       <c r="CC11" s="8"/>
-      <c r="CD11" s="18"/>
-      <c r="CE11" s="17"/>
+      <c r="CD11" s="9"/>
+      <c r="CE11" s="9"/>
       <c r="CF11" s="9"/>
       <c r="CG11" s="9"/>
       <c r="CH11" s="10"/>
       <c r="CI11" s="11"/>
       <c r="CJ11" s="8"/>
-      <c r="CK11" s="18"/>
-      <c r="CL11" s="17"/>
+      <c r="CK11" s="9"/>
+      <c r="CL11" s="9"/>
       <c r="CM11" s="9"/>
       <c r="CN11" s="9"/>
       <c r="CO11" s="10"/>
       <c r="CP11" s="11"/>
       <c r="CQ11" s="8"/>
-      <c r="CR11" s="18"/>
-      <c r="CS11" s="17"/>
+      <c r="CR11" s="9"/>
+      <c r="CS11" s="9"/>
       <c r="CT11" s="9"/>
       <c r="CU11" s="9"/>
       <c r="CV11" s="10"/>
     </row>
-    <row r="12" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
-        <v>36</v>
+    <row r="12" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="125" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="78"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="28"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="134"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
@@ -3445,15 +3513,15 @@
       <c r="AB12" s="26"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="28"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="57"/>
       <c r="AI12" s="58"/>
       <c r="AJ12" s="58"/>
       <c r="AK12" s="59"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="8"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="55"/>
       <c r="AN12" s="56"/>
       <c r="AO12" s="57"/>
       <c r="AP12" s="58"/>
@@ -3516,74 +3584,74 @@
       <c r="CU12" s="9"/>
       <c r="CV12" s="10"/>
     </row>
-    <row r="13" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81" t="s">
-        <v>38</v>
+    <row r="13" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="132" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="78"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="115"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="117"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="118"/>
-      <c r="AK13" s="119"/>
-      <c r="AL13" s="115"/>
-      <c r="AM13" s="116"/>
-      <c r="AN13" s="120"/>
-      <c r="AO13" s="121"/>
-      <c r="AP13" s="118"/>
-      <c r="AQ13" s="118"/>
-      <c r="AR13" s="122"/>
-      <c r="AS13" s="123"/>
-      <c r="AT13" s="124"/>
-      <c r="AU13" s="120"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="118"/>
-      <c r="AX13" s="118"/>
-      <c r="AY13" s="119"/>
-      <c r="AZ13" s="123"/>
-      <c r="BA13" s="124"/>
-      <c r="BB13" s="120"/>
-      <c r="BC13" s="121"/>
-      <c r="BD13" s="118"/>
-      <c r="BE13" s="118"/>
-      <c r="BF13" s="119"/>
-      <c r="BG13" s="123"/>
-      <c r="BH13" s="124"/>
-      <c r="BI13" s="120"/>
-      <c r="BJ13" s="121"/>
-      <c r="BK13" s="118"/>
-      <c r="BL13" s="118"/>
-      <c r="BM13" s="119"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="129"/>
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="129"/>
+      <c r="AH13" s="131"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="129"/>
+      <c r="AM13" s="130"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="57"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="17"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="10"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="18"/>
+      <c r="BJ13" s="17"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="10"/>
       <c r="BN13" s="11"/>
       <c r="BO13" s="8"/>
       <c r="BP13" s="18"/>
@@ -3620,25 +3688,23 @@
       <c r="CU13" s="9"/>
       <c r="CV13" s="10"/>
     </row>
-    <row r="14" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="81" t="s">
-        <v>39</v>
-      </c>
+    <row r="14" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="125"/>
       <c r="B14" s="78"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="28"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
@@ -3653,15 +3719,15 @@
       <c r="AB14" s="26"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="28"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
+      <c r="AE14" s="129"/>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="129"/>
+      <c r="AH14" s="131"/>
       <c r="AI14" s="58"/>
       <c r="AJ14" s="58"/>
       <c r="AK14" s="59"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="8"/>
+      <c r="AL14" s="129"/>
+      <c r="AM14" s="130"/>
       <c r="AN14" s="56"/>
       <c r="AO14" s="57"/>
       <c r="AP14" s="58"/>
@@ -3688,59 +3754,59 @@
       <c r="BK14" s="9"/>
       <c r="BL14" s="9"/>
       <c r="BM14" s="10"/>
-      <c r="BN14" s="123"/>
-      <c r="BO14" s="124"/>
-      <c r="BP14" s="120"/>
-      <c r="BQ14" s="121"/>
-      <c r="BR14" s="118"/>
-      <c r="BS14" s="118"/>
-      <c r="BT14" s="119"/>
-      <c r="BU14" s="123"/>
-      <c r="BV14" s="124"/>
-      <c r="BW14" s="120"/>
-      <c r="BX14" s="121"/>
-      <c r="BY14" s="118"/>
-      <c r="BZ14" s="118"/>
-      <c r="CA14" s="119"/>
-      <c r="CB14" s="123"/>
-      <c r="CC14" s="124"/>
-      <c r="CD14" s="120"/>
-      <c r="CE14" s="121"/>
-      <c r="CF14" s="118"/>
-      <c r="CG14" s="118"/>
-      <c r="CH14" s="119"/>
-      <c r="CI14" s="123"/>
-      <c r="CJ14" s="124"/>
-      <c r="CK14" s="120"/>
-      <c r="CL14" s="121"/>
-      <c r="CM14" s="118"/>
-      <c r="CN14" s="118"/>
-      <c r="CO14" s="119"/>
-      <c r="CP14" s="123"/>
-      <c r="CQ14" s="124"/>
-      <c r="CR14" s="120"/>
-      <c r="CS14" s="121"/>
-      <c r="CT14" s="118"/>
-      <c r="CU14" s="118"/>
-      <c r="CV14" s="119"/>
+      <c r="BN14" s="11"/>
+      <c r="BO14" s="8"/>
+      <c r="BP14" s="18"/>
+      <c r="BQ14" s="17"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="10"/>
+      <c r="BU14" s="11"/>
+      <c r="BV14" s="8"/>
+      <c r="BW14" s="18"/>
+      <c r="BX14" s="17"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="10"/>
+      <c r="CB14" s="11"/>
+      <c r="CC14" s="8"/>
+      <c r="CD14" s="18"/>
+      <c r="CE14" s="17"/>
+      <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="10"/>
+      <c r="CI14" s="11"/>
+      <c r="CJ14" s="8"/>
+      <c r="CK14" s="18"/>
+      <c r="CL14" s="17"/>
+      <c r="CM14" s="9"/>
+      <c r="CN14" s="9"/>
+      <c r="CO14" s="10"/>
+      <c r="CP14" s="11"/>
+      <c r="CQ14" s="8"/>
+      <c r="CR14" s="18"/>
+      <c r="CS14" s="17"/>
+      <c r="CT14" s="9"/>
+      <c r="CU14" s="9"/>
+      <c r="CV14" s="10"/>
     </row>
-    <row r="15" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
+    <row r="15" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="125"/>
       <c r="B15" s="78"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="28"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -3755,15 +3821,15 @@
       <c r="AB15" s="26"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="28"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
+      <c r="AE15" s="129"/>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="129"/>
+      <c r="AH15" s="131"/>
       <c r="AI15" s="58"/>
       <c r="AJ15" s="58"/>
       <c r="AK15" s="59"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="13"/>
+      <c r="AL15" s="129"/>
+      <c r="AM15" s="130"/>
       <c r="AN15" s="56"/>
       <c r="AO15" s="57"/>
       <c r="AP15" s="58"/>
@@ -3826,16 +3892,18 @@
       <c r="CU15" s="9"/>
       <c r="CV15" s="10"/>
     </row>
-    <row r="16" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="76"/>
+    <row r="16" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="74"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
@@ -3843,29 +3911,29 @@
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" s="28"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
       <c r="AI16" s="58"/>
       <c r="AJ16" s="58"/>
       <c r="AK16" s="59"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="8"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="13"/>
       <c r="AN16" s="56"/>
       <c r="AO16" s="57"/>
       <c r="AP16" s="58"/>
@@ -3928,16 +3996,18 @@
       <c r="CU16" s="9"/>
       <c r="CV16" s="10"/>
     </row>
-    <row r="17" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82"/>
+    <row r="17" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81" t="s">
+        <v>42</v>
+      </c>
       <c r="B17" s="78"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="74"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
@@ -3959,15 +4029,15 @@
       <c r="AB17" s="26"/>
       <c r="AC17" s="26"/>
       <c r="AD17" s="28"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
       <c r="AI17" s="58"/>
       <c r="AJ17" s="58"/>
       <c r="AK17" s="59"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="13"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="8"/>
       <c r="AN17" s="56"/>
       <c r="AO17" s="57"/>
       <c r="AP17" s="58"/>
@@ -4001,20 +4071,20 @@
       <c r="BR17" s="9"/>
       <c r="BS17" s="9"/>
       <c r="BT17" s="10"/>
-      <c r="BU17" s="11"/>
-      <c r="BV17" s="8"/>
-      <c r="BW17" s="18"/>
-      <c r="BX17" s="17"/>
-      <c r="BY17" s="9"/>
-      <c r="BZ17" s="9"/>
-      <c r="CA17" s="10"/>
-      <c r="CB17" s="11"/>
-      <c r="CC17" s="8"/>
-      <c r="CD17" s="18"/>
-      <c r="CE17" s="17"/>
-      <c r="CF17" s="9"/>
-      <c r="CG17" s="9"/>
-      <c r="CH17" s="10"/>
+      <c r="BU17" s="85"/>
+      <c r="BV17" s="86"/>
+      <c r="BW17" s="87"/>
+      <c r="BX17" s="88"/>
+      <c r="BY17" s="89"/>
+      <c r="BZ17" s="89"/>
+      <c r="CA17" s="90"/>
+      <c r="CB17" s="85"/>
+      <c r="CC17" s="86"/>
+      <c r="CD17" s="87"/>
+      <c r="CE17" s="88"/>
+      <c r="CF17" s="89"/>
+      <c r="CG17" s="89"/>
+      <c r="CH17" s="90"/>
       <c r="CI17" s="11"/>
       <c r="CJ17" s="8"/>
       <c r="CK17" s="18"/>
@@ -4030,16 +4100,18 @@
       <c r="CU17" s="9"/>
       <c r="CV17" s="10"/>
     </row>
-    <row r="18" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
+    <row r="18" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="81" t="s">
+        <v>32</v>
+      </c>
       <c r="B18" s="78"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="74"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
@@ -4061,15 +4133,15 @@
       <c r="AB18" s="26"/>
       <c r="AC18" s="26"/>
       <c r="AD18" s="28"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
       <c r="AI18" s="58"/>
       <c r="AJ18" s="58"/>
       <c r="AK18" s="59"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="8"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="13"/>
       <c r="AN18" s="56"/>
       <c r="AO18" s="57"/>
       <c r="AP18" s="58"/>
@@ -4132,16 +4204,18 @@
       <c r="CU18" s="9"/>
       <c r="CV18" s="10"/>
     </row>
-    <row r="19" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="82"/>
+    <row r="19" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="81" t="s">
+        <v>33</v>
+      </c>
       <c r="B19" s="78"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="74"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
@@ -4163,15 +4237,15 @@
       <c r="AB19" s="26"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="28"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
       <c r="AI19" s="58"/>
       <c r="AJ19" s="58"/>
       <c r="AK19" s="59"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="13"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="8"/>
       <c r="AN19" s="56"/>
       <c r="AO19" s="57"/>
       <c r="AP19" s="58"/>
@@ -4234,72 +4308,74 @@
       <c r="CU19" s="9"/>
       <c r="CV19" s="10"/>
     </row>
-    <row r="20" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82"/>
+    <row r="20" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="81" t="s">
+        <v>35</v>
+      </c>
       <c r="B20" s="78"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="26"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="58"/>
-      <c r="AQ20" s="58"/>
-      <c r="AR20" s="61"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="8"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="57"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="8"/>
-      <c r="BB20" s="18"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
-      <c r="BF20" s="10"/>
-      <c r="BG20" s="11"/>
-      <c r="BH20" s="8"/>
-      <c r="BI20" s="18"/>
-      <c r="BJ20" s="17"/>
-      <c r="BK20" s="9"/>
-      <c r="BL20" s="9"/>
-      <c r="BM20" s="10"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="102"/>
+      <c r="AJ20" s="102"/>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="100"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="105"/>
+      <c r="AP20" s="102"/>
+      <c r="AQ20" s="102"/>
+      <c r="AR20" s="106"/>
+      <c r="AS20" s="107"/>
+      <c r="AT20" s="108"/>
+      <c r="AU20" s="104"/>
+      <c r="AV20" s="105"/>
+      <c r="AW20" s="102"/>
+      <c r="AX20" s="102"/>
+      <c r="AY20" s="103"/>
+      <c r="AZ20" s="107"/>
+      <c r="BA20" s="108"/>
+      <c r="BB20" s="104"/>
+      <c r="BC20" s="105"/>
+      <c r="BD20" s="102"/>
+      <c r="BE20" s="102"/>
+      <c r="BF20" s="103"/>
+      <c r="BG20" s="107"/>
+      <c r="BH20" s="108"/>
+      <c r="BI20" s="104"/>
+      <c r="BJ20" s="105"/>
+      <c r="BK20" s="102"/>
+      <c r="BL20" s="102"/>
+      <c r="BM20" s="103"/>
       <c r="BN20" s="11"/>
       <c r="BO20" s="8"/>
       <c r="BP20" s="18"/>
@@ -4336,24 +4412,26 @@
       <c r="CU20" s="9"/>
       <c r="CV20" s="10"/>
     </row>
-    <row r="21" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="82"/>
+    <row r="21" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81" t="s">
+        <v>36</v>
+      </c>
       <c r="B21" s="78"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="27"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
       <c r="P21" s="28"/>
-      <c r="Q21" s="27"/>
+      <c r="Q21" s="26"/>
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
@@ -4367,20 +4445,20 @@
       <c r="AB21" s="26"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="28"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
       <c r="AI21" s="58"/>
       <c r="AJ21" s="58"/>
       <c r="AK21" s="59"/>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="13"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="8"/>
       <c r="AN21" s="56"/>
       <c r="AO21" s="57"/>
       <c r="AP21" s="58"/>
       <c r="AQ21" s="58"/>
-      <c r="AR21" s="61"/>
+      <c r="AR21" s="60"/>
       <c r="AS21" s="11"/>
       <c r="AT21" s="8"/>
       <c r="AU21" s="18"/>
@@ -4402,60 +4480,60 @@
       <c r="BK21" s="9"/>
       <c r="BL21" s="9"/>
       <c r="BM21" s="10"/>
-      <c r="BN21" s="11"/>
-      <c r="BO21" s="8"/>
-      <c r="BP21" s="18"/>
-      <c r="BQ21" s="17"/>
-      <c r="BR21" s="9"/>
-      <c r="BS21" s="9"/>
-      <c r="BT21" s="10"/>
-      <c r="BU21" s="11"/>
-      <c r="BV21" s="8"/>
-      <c r="BW21" s="18"/>
-      <c r="BX21" s="17"/>
-      <c r="BY21" s="9"/>
-      <c r="BZ21" s="9"/>
-      <c r="CA21" s="10"/>
-      <c r="CB21" s="11"/>
-      <c r="CC21" s="8"/>
-      <c r="CD21" s="18"/>
-      <c r="CE21" s="17"/>
-      <c r="CF21" s="9"/>
-      <c r="CG21" s="9"/>
-      <c r="CH21" s="10"/>
-      <c r="CI21" s="11"/>
-      <c r="CJ21" s="8"/>
-      <c r="CK21" s="18"/>
-      <c r="CL21" s="17"/>
-      <c r="CM21" s="9"/>
-      <c r="CN21" s="9"/>
-      <c r="CO21" s="10"/>
-      <c r="CP21" s="11"/>
-      <c r="CQ21" s="8"/>
-      <c r="CR21" s="18"/>
-      <c r="CS21" s="17"/>
-      <c r="CT21" s="9"/>
-      <c r="CU21" s="9"/>
-      <c r="CV21" s="10"/>
+      <c r="BN21" s="107"/>
+      <c r="BO21" s="108"/>
+      <c r="BP21" s="104"/>
+      <c r="BQ21" s="105"/>
+      <c r="BR21" s="102"/>
+      <c r="BS21" s="102"/>
+      <c r="BT21" s="103"/>
+      <c r="BU21" s="107"/>
+      <c r="BV21" s="108"/>
+      <c r="BW21" s="104"/>
+      <c r="BX21" s="105"/>
+      <c r="BY21" s="102"/>
+      <c r="BZ21" s="102"/>
+      <c r="CA21" s="103"/>
+      <c r="CB21" s="107"/>
+      <c r="CC21" s="108"/>
+      <c r="CD21" s="104"/>
+      <c r="CE21" s="105"/>
+      <c r="CF21" s="102"/>
+      <c r="CG21" s="102"/>
+      <c r="CH21" s="103"/>
+      <c r="CI21" s="107"/>
+      <c r="CJ21" s="108"/>
+      <c r="CK21" s="104"/>
+      <c r="CL21" s="105"/>
+      <c r="CM21" s="102"/>
+      <c r="CN21" s="102"/>
+      <c r="CO21" s="103"/>
+      <c r="CP21" s="107"/>
+      <c r="CQ21" s="108"/>
+      <c r="CR21" s="104"/>
+      <c r="CS21" s="105"/>
+      <c r="CT21" s="102"/>
+      <c r="CU21" s="102"/>
+      <c r="CV21" s="103"/>
     </row>
-    <row r="22" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+    <row r="22" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="82"/>
       <c r="B22" s="78"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="27"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
       <c r="P22" s="28"/>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="26"/>
       <c r="R22" s="26"/>
       <c r="S22" s="26"/>
       <c r="T22" s="26"/>
@@ -4469,20 +4547,20 @@
       <c r="AB22" s="26"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="28"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
       <c r="AI22" s="58"/>
       <c r="AJ22" s="58"/>
       <c r="AK22" s="59"/>
-      <c r="AL22" s="54"/>
-      <c r="AM22" s="55"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="13"/>
       <c r="AN22" s="56"/>
       <c r="AO22" s="57"/>
       <c r="AP22" s="58"/>
       <c r="AQ22" s="58"/>
-      <c r="AR22" s="61"/>
+      <c r="AR22" s="60"/>
       <c r="AS22" s="11"/>
       <c r="AT22" s="8"/>
       <c r="AU22" s="18"/>
@@ -4540,51 +4618,51 @@
       <c r="CU22" s="9"/>
       <c r="CV22" s="10"/>
     </row>
-    <row r="23" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+    <row r="23" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="82"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="76"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="27"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="27"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="26"/>
       <c r="R23" s="26"/>
       <c r="S23" s="26"/>
       <c r="T23" s="26"/>
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
       <c r="W23" s="28"/>
-      <c r="X23" s="27"/>
+      <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
       <c r="AC23" s="26"/>
       <c r="AD23" s="28"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
       <c r="AI23" s="58"/>
       <c r="AJ23" s="58"/>
       <c r="AK23" s="59"/>
-      <c r="AL23" s="54"/>
-      <c r="AM23" s="55"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="8"/>
       <c r="AN23" s="56"/>
       <c r="AO23" s="57"/>
       <c r="AP23" s="58"/>
       <c r="AQ23" s="58"/>
-      <c r="AR23" s="61"/>
+      <c r="AR23" s="60"/>
       <c r="AS23" s="11"/>
       <c r="AT23" s="8"/>
       <c r="AU23" s="18"/>
@@ -4642,51 +4720,51 @@
       <c r="CU23" s="9"/>
       <c r="CV23" s="10"/>
     </row>
-    <row r="24" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+    <row r="24" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="82"/>
       <c r="B24" s="78"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="27"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="27"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="26"/>
       <c r="R24" s="26"/>
       <c r="S24" s="26"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
       <c r="V24" s="26"/>
       <c r="W24" s="28"/>
-      <c r="X24" s="27"/>
+      <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
       <c r="Z24" s="26"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="28"/>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="57"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
       <c r="AI24" s="58"/>
       <c r="AJ24" s="58"/>
       <c r="AK24" s="59"/>
-      <c r="AL24" s="54"/>
-      <c r="AM24" s="55"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="13"/>
       <c r="AN24" s="56"/>
       <c r="AO24" s="57"/>
       <c r="AP24" s="58"/>
       <c r="AQ24" s="58"/>
-      <c r="AR24" s="61"/>
+      <c r="AR24" s="60"/>
       <c r="AS24" s="11"/>
       <c r="AT24" s="8"/>
       <c r="AU24" s="18"/>
@@ -4744,8 +4822,8 @@
       <c r="CU24" s="9"/>
       <c r="CV24" s="10"/>
     </row>
-    <row r="25" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
+    <row r="25" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="82"/>
       <c r="B25" s="78"/>
       <c r="C25" s="27"/>
       <c r="D25" s="26"/>
@@ -4753,42 +4831,42 @@
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="27"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="27"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
       <c r="V25" s="26"/>
       <c r="W25" s="28"/>
-      <c r="X25" s="27"/>
+      <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26"/>
       <c r="AA25" s="26"/>
       <c r="AB25" s="26"/>
       <c r="AC25" s="26"/>
       <c r="AD25" s="28"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="57"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
       <c r="AI25" s="58"/>
       <c r="AJ25" s="58"/>
       <c r="AK25" s="59"/>
-      <c r="AL25" s="54"/>
-      <c r="AM25" s="55"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="8"/>
       <c r="AN25" s="56"/>
       <c r="AO25" s="57"/>
       <c r="AP25" s="58"/>
       <c r="AQ25" s="58"/>
-      <c r="AR25" s="61"/>
+      <c r="AR25" s="60"/>
       <c r="AS25" s="11"/>
       <c r="AT25" s="8"/>
       <c r="AU25" s="18"/>
@@ -4846,8 +4924,8 @@
       <c r="CU25" s="9"/>
       <c r="CV25" s="10"/>
     </row>
-    <row r="26" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
+    <row r="26" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="82"/>
       <c r="B26" s="78"/>
       <c r="C26" s="27"/>
       <c r="D26" s="26"/>
@@ -4855,42 +4933,42 @@
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="27"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="27"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="26"/>
       <c r="R26" s="26"/>
       <c r="S26" s="26"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
       <c r="V26" s="26"/>
       <c r="W26" s="28"/>
-      <c r="X26" s="27"/>
+      <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26"/>
       <c r="AA26" s="26"/>
       <c r="AB26" s="26"/>
       <c r="AC26" s="26"/>
       <c r="AD26" s="28"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="57"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
       <c r="AI26" s="58"/>
       <c r="AJ26" s="58"/>
       <c r="AK26" s="59"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="55"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="13"/>
       <c r="AN26" s="56"/>
       <c r="AO26" s="57"/>
       <c r="AP26" s="58"/>
       <c r="AQ26" s="58"/>
-      <c r="AR26" s="61"/>
+      <c r="AR26" s="60"/>
       <c r="AS26" s="11"/>
       <c r="AT26" s="8"/>
       <c r="AU26" s="18"/>
@@ -4948,8 +5026,8 @@
       <c r="CU26" s="9"/>
       <c r="CV26" s="10"/>
     </row>
-    <row r="27" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
+    <row r="27" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="82"/>
       <c r="B27" s="78"/>
       <c r="C27" s="27"/>
       <c r="D27" s="26"/>
@@ -4958,13 +5036,13 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="27"/>
+      <c r="J27" s="26"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="29"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="26"/>
       <c r="S27" s="26"/>
@@ -4972,22 +5050,22 @@
       <c r="U27" s="26"/>
       <c r="V27" s="26"/>
       <c r="W27" s="28"/>
-      <c r="X27" s="27"/>
+      <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
       <c r="Z27" s="26"/>
       <c r="AA27" s="26"/>
       <c r="AB27" s="26"/>
       <c r="AC27" s="26"/>
       <c r="AD27" s="28"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="57"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
       <c r="AI27" s="58"/>
       <c r="AJ27" s="58"/>
       <c r="AK27" s="59"/>
-      <c r="AL27" s="54"/>
-      <c r="AM27" s="55"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="8"/>
       <c r="AN27" s="56"/>
       <c r="AO27" s="57"/>
       <c r="AP27" s="58"/>
@@ -5050,8 +5128,8 @@
       <c r="CU27" s="9"/>
       <c r="CV27" s="10"/>
     </row>
-    <row r="28" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+    <row r="28" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="82"/>
       <c r="B28" s="78"/>
       <c r="C28" s="27"/>
       <c r="D28" s="26"/>
@@ -5066,7 +5144,7 @@
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="29"/>
+      <c r="P28" s="28"/>
       <c r="Q28" s="27"/>
       <c r="R28" s="26"/>
       <c r="S28" s="26"/>
@@ -5074,22 +5152,22 @@
       <c r="U28" s="26"/>
       <c r="V28" s="26"/>
       <c r="W28" s="28"/>
-      <c r="X28" s="27"/>
+      <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
       <c r="Z28" s="26"/>
       <c r="AA28" s="26"/>
       <c r="AB28" s="26"/>
       <c r="AC28" s="26"/>
       <c r="AD28" s="28"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="57"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
       <c r="AI28" s="58"/>
       <c r="AJ28" s="58"/>
       <c r="AK28" s="59"/>
-      <c r="AL28" s="54"/>
-      <c r="AM28" s="55"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="13"/>
       <c r="AN28" s="56"/>
       <c r="AO28" s="57"/>
       <c r="AP28" s="58"/>
@@ -5152,7 +5230,7 @@
       <c r="CU28" s="9"/>
       <c r="CV28" s="10"/>
     </row>
-    <row r="29" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="78"/>
       <c r="C29" s="27"/>
@@ -5168,7 +5246,7 @@
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="29"/>
+      <c r="P29" s="28"/>
       <c r="Q29" s="27"/>
       <c r="R29" s="26"/>
       <c r="S29" s="26"/>
@@ -5176,17 +5254,17 @@
       <c r="U29" s="26"/>
       <c r="V29" s="26"/>
       <c r="W29" s="28"/>
-      <c r="X29" s="27"/>
+      <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
       <c r="Z29" s="26"/>
       <c r="AA29" s="26"/>
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="28"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="57"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
       <c r="AI29" s="58"/>
       <c r="AJ29" s="58"/>
       <c r="AK29" s="59"/>
@@ -5254,7 +5332,7 @@
       <c r="CU29" s="9"/>
       <c r="CV29" s="10"/>
     </row>
-    <row r="30" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="78"/>
       <c r="C30" s="27"/>
@@ -5285,10 +5363,10 @@
       <c r="AB30" s="26"/>
       <c r="AC30" s="26"/>
       <c r="AD30" s="28"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="57"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
       <c r="AI30" s="58"/>
       <c r="AJ30" s="58"/>
       <c r="AK30" s="59"/>
@@ -5356,7 +5434,7 @@
       <c r="CU30" s="9"/>
       <c r="CV30" s="10"/>
     </row>
-    <row r="31" spans="1:100" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="78"/>
       <c r="C31" s="27"/>
@@ -5458,10 +5536,8 @@
       <c r="CU31" s="9"/>
       <c r="CV31" s="10"/>
     </row>
-    <row r="32" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>5</v>
-      </c>
+    <row r="32" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="49"/>
       <c r="B32" s="78"/>
       <c r="C32" s="27"/>
       <c r="D32" s="26"/>
@@ -5491,20 +5567,20 @@
       <c r="AB32" s="26"/>
       <c r="AC32" s="26"/>
       <c r="AD32" s="28"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="10"/>
-      <c r="AL32" s="11"/>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="18"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="9"/>
-      <c r="AQ32" s="9"/>
-      <c r="AR32" s="52"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="58"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="54"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="58"/>
+      <c r="AQ32" s="58"/>
+      <c r="AR32" s="61"/>
       <c r="AS32" s="11"/>
       <c r="AT32" s="8"/>
       <c r="AU32" s="18"/>
@@ -5562,159 +5638,882 @@
       <c r="CU32" s="9"/>
       <c r="CV32" s="10"/>
     </row>
-    <row r="33" spans="1:100" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="58"/>
+      <c r="AJ33" s="58"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="58"/>
+      <c r="AQ33" s="58"/>
+      <c r="AR33" s="61"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="18"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="18"/>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="9"/>
+      <c r="BE33" s="9"/>
+      <c r="BF33" s="10"/>
+      <c r="BG33" s="11"/>
+      <c r="BH33" s="8"/>
+      <c r="BI33" s="18"/>
+      <c r="BJ33" s="17"/>
+      <c r="BK33" s="9"/>
+      <c r="BL33" s="9"/>
+      <c r="BM33" s="10"/>
+      <c r="BN33" s="11"/>
+      <c r="BO33" s="8"/>
+      <c r="BP33" s="18"/>
+      <c r="BQ33" s="17"/>
+      <c r="BR33" s="9"/>
+      <c r="BS33" s="9"/>
+      <c r="BT33" s="10"/>
+      <c r="BU33" s="11"/>
+      <c r="BV33" s="8"/>
+      <c r="BW33" s="18"/>
+      <c r="BX33" s="17"/>
+      <c r="BY33" s="9"/>
+      <c r="BZ33" s="9"/>
+      <c r="CA33" s="10"/>
+      <c r="CB33" s="11"/>
+      <c r="CC33" s="8"/>
+      <c r="CD33" s="18"/>
+      <c r="CE33" s="17"/>
+      <c r="CF33" s="9"/>
+      <c r="CG33" s="9"/>
+      <c r="CH33" s="10"/>
+      <c r="CI33" s="11"/>
+      <c r="CJ33" s="8"/>
+      <c r="CK33" s="18"/>
+      <c r="CL33" s="17"/>
+      <c r="CM33" s="9"/>
+      <c r="CN33" s="9"/>
+      <c r="CO33" s="10"/>
+      <c r="CP33" s="11"/>
+      <c r="CQ33" s="8"/>
+      <c r="CR33" s="18"/>
+      <c r="CS33" s="17"/>
+      <c r="CT33" s="9"/>
+      <c r="CU33" s="9"/>
+      <c r="CV33" s="10"/>
+    </row>
+    <row r="34" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="49"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="58"/>
+      <c r="AJ34" s="58"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="55"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="58"/>
+      <c r="AQ34" s="58"/>
+      <c r="AR34" s="61"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="8"/>
+      <c r="AU34" s="18"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="9"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="18"/>
+      <c r="BC34" s="17"/>
+      <c r="BD34" s="9"/>
+      <c r="BE34" s="9"/>
+      <c r="BF34" s="10"/>
+      <c r="BG34" s="11"/>
+      <c r="BH34" s="8"/>
+      <c r="BI34" s="18"/>
+      <c r="BJ34" s="17"/>
+      <c r="BK34" s="9"/>
+      <c r="BL34" s="9"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="11"/>
+      <c r="BO34" s="8"/>
+      <c r="BP34" s="18"/>
+      <c r="BQ34" s="17"/>
+      <c r="BR34" s="9"/>
+      <c r="BS34" s="9"/>
+      <c r="BT34" s="10"/>
+      <c r="BU34" s="11"/>
+      <c r="BV34" s="8"/>
+      <c r="BW34" s="18"/>
+      <c r="BX34" s="17"/>
+      <c r="BY34" s="9"/>
+      <c r="BZ34" s="9"/>
+      <c r="CA34" s="10"/>
+      <c r="CB34" s="11"/>
+      <c r="CC34" s="8"/>
+      <c r="CD34" s="18"/>
+      <c r="CE34" s="17"/>
+      <c r="CF34" s="9"/>
+      <c r="CG34" s="9"/>
+      <c r="CH34" s="10"/>
+      <c r="CI34" s="11"/>
+      <c r="CJ34" s="8"/>
+      <c r="CK34" s="18"/>
+      <c r="CL34" s="17"/>
+      <c r="CM34" s="9"/>
+      <c r="CN34" s="9"/>
+      <c r="CO34" s="10"/>
+      <c r="CP34" s="11"/>
+      <c r="CQ34" s="8"/>
+      <c r="CR34" s="18"/>
+      <c r="CS34" s="17"/>
+      <c r="CT34" s="9"/>
+      <c r="CU34" s="9"/>
+      <c r="CV34" s="10"/>
+    </row>
+    <row r="35" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="58"/>
+      <c r="AJ35" s="58"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="55"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="58"/>
+      <c r="AQ35" s="58"/>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="8"/>
+      <c r="AU35" s="18"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="9"/>
+      <c r="AY35" s="10"/>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="8"/>
+      <c r="BB35" s="18"/>
+      <c r="BC35" s="17"/>
+      <c r="BD35" s="9"/>
+      <c r="BE35" s="9"/>
+      <c r="BF35" s="10"/>
+      <c r="BG35" s="11"/>
+      <c r="BH35" s="8"/>
+      <c r="BI35" s="18"/>
+      <c r="BJ35" s="17"/>
+      <c r="BK35" s="9"/>
+      <c r="BL35" s="9"/>
+      <c r="BM35" s="10"/>
+      <c r="BN35" s="11"/>
+      <c r="BO35" s="8"/>
+      <c r="BP35" s="18"/>
+      <c r="BQ35" s="17"/>
+      <c r="BR35" s="9"/>
+      <c r="BS35" s="9"/>
+      <c r="BT35" s="10"/>
+      <c r="BU35" s="11"/>
+      <c r="BV35" s="8"/>
+      <c r="BW35" s="18"/>
+      <c r="BX35" s="17"/>
+      <c r="BY35" s="9"/>
+      <c r="BZ35" s="9"/>
+      <c r="CA35" s="10"/>
+      <c r="CB35" s="11"/>
+      <c r="CC35" s="8"/>
+      <c r="CD35" s="18"/>
+      <c r="CE35" s="17"/>
+      <c r="CF35" s="9"/>
+      <c r="CG35" s="9"/>
+      <c r="CH35" s="10"/>
+      <c r="CI35" s="11"/>
+      <c r="CJ35" s="8"/>
+      <c r="CK35" s="18"/>
+      <c r="CL35" s="17"/>
+      <c r="CM35" s="9"/>
+      <c r="CN35" s="9"/>
+      <c r="CO35" s="10"/>
+      <c r="CP35" s="11"/>
+      <c r="CQ35" s="8"/>
+      <c r="CR35" s="18"/>
+      <c r="CS35" s="17"/>
+      <c r="CT35" s="9"/>
+      <c r="CU35" s="9"/>
+      <c r="CV35" s="10"/>
+    </row>
+    <row r="36" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="49"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="55"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="58"/>
+      <c r="AJ36" s="58"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="54"/>
+      <c r="AM36" s="55"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="58"/>
+      <c r="AQ36" s="58"/>
+      <c r="AR36" s="61"/>
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="8"/>
+      <c r="AU36" s="18"/>
+      <c r="AV36" s="57"/>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="10"/>
+      <c r="AZ36" s="11"/>
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="18"/>
+      <c r="BC36" s="17"/>
+      <c r="BD36" s="9"/>
+      <c r="BE36" s="9"/>
+      <c r="BF36" s="10"/>
+      <c r="BG36" s="11"/>
+      <c r="BH36" s="8"/>
+      <c r="BI36" s="18"/>
+      <c r="BJ36" s="17"/>
+      <c r="BK36" s="9"/>
+      <c r="BL36" s="9"/>
+      <c r="BM36" s="10"/>
+      <c r="BN36" s="11"/>
+      <c r="BO36" s="8"/>
+      <c r="BP36" s="18"/>
+      <c r="BQ36" s="17"/>
+      <c r="BR36" s="9"/>
+      <c r="BS36" s="9"/>
+      <c r="BT36" s="10"/>
+      <c r="BU36" s="11"/>
+      <c r="BV36" s="8"/>
+      <c r="BW36" s="18"/>
+      <c r="BX36" s="17"/>
+      <c r="BY36" s="9"/>
+      <c r="BZ36" s="9"/>
+      <c r="CA36" s="10"/>
+      <c r="CB36" s="11"/>
+      <c r="CC36" s="8"/>
+      <c r="CD36" s="18"/>
+      <c r="CE36" s="17"/>
+      <c r="CF36" s="9"/>
+      <c r="CG36" s="9"/>
+      <c r="CH36" s="10"/>
+      <c r="CI36" s="11"/>
+      <c r="CJ36" s="8"/>
+      <c r="CK36" s="18"/>
+      <c r="CL36" s="17"/>
+      <c r="CM36" s="9"/>
+      <c r="CN36" s="9"/>
+      <c r="CO36" s="10"/>
+      <c r="CP36" s="11"/>
+      <c r="CQ36" s="8"/>
+      <c r="CR36" s="18"/>
+      <c r="CS36" s="17"/>
+      <c r="CT36" s="9"/>
+      <c r="CU36" s="9"/>
+      <c r="CV36" s="10"/>
+    </row>
+    <row r="37" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="49"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="55"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="57"/>
+      <c r="AI37" s="58"/>
+      <c r="AJ37" s="58"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="55"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="57"/>
+      <c r="AP37" s="58"/>
+      <c r="AQ37" s="58"/>
+      <c r="AR37" s="61"/>
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="8"/>
+      <c r="AU37" s="18"/>
+      <c r="AV37" s="57"/>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="10"/>
+      <c r="AZ37" s="11"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="18"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="9"/>
+      <c r="BE37" s="9"/>
+      <c r="BF37" s="10"/>
+      <c r="BG37" s="11"/>
+      <c r="BH37" s="8"/>
+      <c r="BI37" s="18"/>
+      <c r="BJ37" s="17"/>
+      <c r="BK37" s="9"/>
+      <c r="BL37" s="9"/>
+      <c r="BM37" s="10"/>
+      <c r="BN37" s="11"/>
+      <c r="BO37" s="8"/>
+      <c r="BP37" s="18"/>
+      <c r="BQ37" s="17"/>
+      <c r="BR37" s="9"/>
+      <c r="BS37" s="9"/>
+      <c r="BT37" s="10"/>
+      <c r="BU37" s="11"/>
+      <c r="BV37" s="8"/>
+      <c r="BW37" s="18"/>
+      <c r="BX37" s="17"/>
+      <c r="BY37" s="9"/>
+      <c r="BZ37" s="9"/>
+      <c r="CA37" s="10"/>
+      <c r="CB37" s="11"/>
+      <c r="CC37" s="8"/>
+      <c r="CD37" s="18"/>
+      <c r="CE37" s="17"/>
+      <c r="CF37" s="9"/>
+      <c r="CG37" s="9"/>
+      <c r="CH37" s="10"/>
+      <c r="CI37" s="11"/>
+      <c r="CJ37" s="8"/>
+      <c r="CK37" s="18"/>
+      <c r="CL37" s="17"/>
+      <c r="CM37" s="9"/>
+      <c r="CN37" s="9"/>
+      <c r="CO37" s="10"/>
+      <c r="CP37" s="11"/>
+      <c r="CQ37" s="8"/>
+      <c r="CR37" s="18"/>
+      <c r="CS37" s="17"/>
+      <c r="CT37" s="9"/>
+      <c r="CU37" s="9"/>
+      <c r="CV37" s="10"/>
+    </row>
+    <row r="38" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="49"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="55"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="58"/>
+      <c r="AJ38" s="58"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="55"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="57"/>
+      <c r="AP38" s="58"/>
+      <c r="AQ38" s="58"/>
+      <c r="AR38" s="61"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="8"/>
+      <c r="AU38" s="18"/>
+      <c r="AV38" s="57"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="10"/>
+      <c r="AZ38" s="11"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="18"/>
+      <c r="BC38" s="17"/>
+      <c r="BD38" s="9"/>
+      <c r="BE38" s="9"/>
+      <c r="BF38" s="10"/>
+      <c r="BG38" s="11"/>
+      <c r="BH38" s="8"/>
+      <c r="BI38" s="18"/>
+      <c r="BJ38" s="17"/>
+      <c r="BK38" s="9"/>
+      <c r="BL38" s="9"/>
+      <c r="BM38" s="10"/>
+      <c r="BN38" s="11"/>
+      <c r="BO38" s="8"/>
+      <c r="BP38" s="18"/>
+      <c r="BQ38" s="17"/>
+      <c r="BR38" s="9"/>
+      <c r="BS38" s="9"/>
+      <c r="BT38" s="10"/>
+      <c r="BU38" s="11"/>
+      <c r="BV38" s="8"/>
+      <c r="BW38" s="18"/>
+      <c r="BX38" s="17"/>
+      <c r="BY38" s="9"/>
+      <c r="BZ38" s="9"/>
+      <c r="CA38" s="10"/>
+      <c r="CB38" s="11"/>
+      <c r="CC38" s="8"/>
+      <c r="CD38" s="18"/>
+      <c r="CE38" s="17"/>
+      <c r="CF38" s="9"/>
+      <c r="CG38" s="9"/>
+      <c r="CH38" s="10"/>
+      <c r="CI38" s="11"/>
+      <c r="CJ38" s="8"/>
+      <c r="CK38" s="18"/>
+      <c r="CL38" s="17"/>
+      <c r="CM38" s="9"/>
+      <c r="CN38" s="9"/>
+      <c r="CO38" s="10"/>
+      <c r="CP38" s="11"/>
+      <c r="CQ38" s="8"/>
+      <c r="CR38" s="18"/>
+      <c r="CS38" s="17"/>
+      <c r="CT38" s="9"/>
+      <c r="CU38" s="9"/>
+      <c r="CV38" s="10"/>
+    </row>
+    <row r="39" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="78"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="9"/>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="52"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="8"/>
+      <c r="AU39" s="18"/>
+      <c r="AV39" s="57"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="10"/>
+      <c r="AZ39" s="11"/>
+      <c r="BA39" s="8"/>
+      <c r="BB39" s="18"/>
+      <c r="BC39" s="17"/>
+      <c r="BD39" s="9"/>
+      <c r="BE39" s="9"/>
+      <c r="BF39" s="10"/>
+      <c r="BG39" s="11"/>
+      <c r="BH39" s="8"/>
+      <c r="BI39" s="18"/>
+      <c r="BJ39" s="17"/>
+      <c r="BK39" s="9"/>
+      <c r="BL39" s="9"/>
+      <c r="BM39" s="10"/>
+      <c r="BN39" s="11"/>
+      <c r="BO39" s="8"/>
+      <c r="BP39" s="18"/>
+      <c r="BQ39" s="17"/>
+      <c r="BR39" s="9"/>
+      <c r="BS39" s="9"/>
+      <c r="BT39" s="10"/>
+      <c r="BU39" s="11"/>
+      <c r="BV39" s="8"/>
+      <c r="BW39" s="18"/>
+      <c r="BX39" s="17"/>
+      <c r="BY39" s="9"/>
+      <c r="BZ39" s="9"/>
+      <c r="CA39" s="10"/>
+      <c r="CB39" s="11"/>
+      <c r="CC39" s="8"/>
+      <c r="CD39" s="18"/>
+      <c r="CE39" s="17"/>
+      <c r="CF39" s="9"/>
+      <c r="CG39" s="9"/>
+      <c r="CH39" s="10"/>
+      <c r="CI39" s="11"/>
+      <c r="CJ39" s="8"/>
+      <c r="CK39" s="18"/>
+      <c r="CL39" s="17"/>
+      <c r="CM39" s="9"/>
+      <c r="CN39" s="9"/>
+      <c r="CO39" s="10"/>
+      <c r="CP39" s="11"/>
+      <c r="CQ39" s="8"/>
+      <c r="CR39" s="18"/>
+      <c r="CS39" s="17"/>
+      <c r="CT39" s="9"/>
+      <c r="CU39" s="9"/>
+      <c r="CV39" s="10"/>
+    </row>
+    <row r="40" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="20"/>
-      <c r="AI33" s="20"/>
-      <c r="AJ33" s="20"/>
-      <c r="AK33" s="21"/>
-      <c r="AL33" s="22"/>
-      <c r="AM33" s="20"/>
-      <c r="AN33" s="20"/>
-      <c r="AO33" s="20"/>
-      <c r="AP33" s="20"/>
-      <c r="AQ33" s="20"/>
-      <c r="AR33" s="53"/>
-      <c r="AS33" s="22"/>
-      <c r="AT33" s="20"/>
-      <c r="AU33" s="20"/>
-      <c r="AV33" s="64"/>
-      <c r="AW33" s="20"/>
-      <c r="AX33" s="20"/>
-      <c r="AY33" s="21"/>
-      <c r="AZ33" s="22"/>
-      <c r="BA33" s="20"/>
-      <c r="BB33" s="20"/>
-      <c r="BC33" s="20"/>
-      <c r="BD33" s="20"/>
-      <c r="BE33" s="20"/>
-      <c r="BF33" s="21"/>
-      <c r="BG33" s="22"/>
-      <c r="BH33" s="20"/>
-      <c r="BI33" s="20"/>
-      <c r="BJ33" s="20"/>
-      <c r="BK33" s="20"/>
-      <c r="BL33" s="20"/>
-      <c r="BM33" s="21"/>
-      <c r="BN33" s="22"/>
-      <c r="BO33" s="20"/>
-      <c r="BP33" s="20"/>
-      <c r="BQ33" s="20"/>
-      <c r="BR33" s="20"/>
-      <c r="BS33" s="20"/>
-      <c r="BT33" s="21"/>
-      <c r="BU33" s="22"/>
-      <c r="BV33" s="20"/>
-      <c r="BW33" s="20"/>
-      <c r="BX33" s="20"/>
-      <c r="BY33" s="20"/>
-      <c r="BZ33" s="20"/>
-      <c r="CA33" s="21"/>
-      <c r="CB33" s="22"/>
-      <c r="CC33" s="20"/>
-      <c r="CD33" s="20"/>
-      <c r="CE33" s="20"/>
-      <c r="CF33" s="20"/>
-      <c r="CG33" s="20"/>
-      <c r="CH33" s="21"/>
-      <c r="CI33" s="22"/>
-      <c r="CJ33" s="20"/>
-      <c r="CK33" s="20"/>
-      <c r="CL33" s="20"/>
-      <c r="CM33" s="20"/>
-      <c r="CN33" s="20"/>
-      <c r="CO33" s="21"/>
-      <c r="CP33" s="22"/>
-      <c r="CQ33" s="20"/>
-      <c r="CR33" s="20"/>
-      <c r="CS33" s="20"/>
-      <c r="CT33" s="20"/>
-      <c r="CU33" s="20"/>
-      <c r="CV33" s="21"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="20"/>
+      <c r="AO40" s="20"/>
+      <c r="AP40" s="20"/>
+      <c r="AQ40" s="20"/>
+      <c r="AR40" s="53"/>
+      <c r="AS40" s="22"/>
+      <c r="AT40" s="20"/>
+      <c r="AU40" s="20"/>
+      <c r="AV40" s="64"/>
+      <c r="AW40" s="20"/>
+      <c r="AX40" s="20"/>
+      <c r="AY40" s="21"/>
+      <c r="AZ40" s="22"/>
+      <c r="BA40" s="20"/>
+      <c r="BB40" s="20"/>
+      <c r="BC40" s="20"/>
+      <c r="BD40" s="20"/>
+      <c r="BE40" s="20"/>
+      <c r="BF40" s="21"/>
+      <c r="BG40" s="22"/>
+      <c r="BH40" s="20"/>
+      <c r="BI40" s="20"/>
+      <c r="BJ40" s="20"/>
+      <c r="BK40" s="20"/>
+      <c r="BL40" s="20"/>
+      <c r="BM40" s="21"/>
+      <c r="BN40" s="22"/>
+      <c r="BO40" s="20"/>
+      <c r="BP40" s="20"/>
+      <c r="BQ40" s="20"/>
+      <c r="BR40" s="20"/>
+      <c r="BS40" s="20"/>
+      <c r="BT40" s="21"/>
+      <c r="BU40" s="22"/>
+      <c r="BV40" s="20"/>
+      <c r="BW40" s="20"/>
+      <c r="BX40" s="20"/>
+      <c r="BY40" s="20"/>
+      <c r="BZ40" s="20"/>
+      <c r="CA40" s="21"/>
+      <c r="CB40" s="22"/>
+      <c r="CC40" s="20"/>
+      <c r="CD40" s="20"/>
+      <c r="CE40" s="20"/>
+      <c r="CF40" s="20"/>
+      <c r="CG40" s="20"/>
+      <c r="CH40" s="21"/>
+      <c r="CI40" s="22"/>
+      <c r="CJ40" s="20"/>
+      <c r="CK40" s="20"/>
+      <c r="CL40" s="20"/>
+      <c r="CM40" s="20"/>
+      <c r="CN40" s="20"/>
+      <c r="CO40" s="21"/>
+      <c r="CP40" s="22"/>
+      <c r="CQ40" s="20"/>
+      <c r="CR40" s="20"/>
+      <c r="CS40" s="20"/>
+      <c r="CT40" s="20"/>
+      <c r="CU40" s="20"/>
+      <c r="CV40" s="21"/>
     </row>
-    <row r="34" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="B34" s="23">
-        <f>B3-SUM(B5:B33)</f>
+    <row r="41" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="B41" s="23">
+        <f>B3-SUM(B5:B40)</f>
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="42" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A36" s="62" t="s">
+    <row r="43" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A37" s="62" t="s">
+    <row r="44" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="s">
+    <row r="45" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A45" s="62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A40"/>
+    <row r="47" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A47"/>
     </row>
-    <row r="41" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A41"/>
+    <row r="48" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A48"/>
     </row>
-    <row r="42" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A42"/>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49"/>
     </row>
-    <row r="43" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A43"/>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50"/>
     </row>
-    <row r="44" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A44"/>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51"/>
     </row>
-    <row r="45" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A45"/>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52"/>
     </row>
-    <row r="46" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A46"/>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="CP1:CV1"/>
+    <mergeCell ref="BG1:BM1"/>
+    <mergeCell ref="BN1:BT1"/>
+    <mergeCell ref="BU1:CA1"/>
+    <mergeCell ref="CB1:CH1"/>
+    <mergeCell ref="CI1:CO1"/>
     <mergeCell ref="AL1:AR1"/>
     <mergeCell ref="AS1:AY1"/>
     <mergeCell ref="AZ1:BF1"/>
@@ -5725,12 +6524,6 @@
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
-    <mergeCell ref="CP1:CV1"/>
-    <mergeCell ref="BG1:BM1"/>
-    <mergeCell ref="BN1:BT1"/>
-    <mergeCell ref="BU1:CA1"/>
-    <mergeCell ref="CB1:CH1"/>
-    <mergeCell ref="CI1:CO1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5746,17 +6539,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>

--- a/Zeitplan-BA.xlsx
+++ b/Zeitplan-BA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A309C57A-575A-4771-A571-9EE26016955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8C1E8-5CAB-4992-8DE4-26C7546C44E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
   <si>
     <t>Prüfung</t>
   </si>
@@ -432,12 +432,37 @@
   <si>
     <t xml:space="preserve">Anforderungsanalyse für die Bedienbarkeit </t>
   </si>
+  <si>
+    <t xml:space="preserve">User-Centered Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedienbarkeit </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Arten von Prototypen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,8 +512,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,8 +567,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF25050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="63">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1300,19 +1336,6 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1360,7 +1383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1579,28 +1602,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1625,7 +1642,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1702,6 +1719,36 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1712,6 +1759,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1720,10 +1771,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1768,34 +1815,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1806,12 +1832,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF25050"/>
       <color rgb="FFFFCDFF"/>
       <color rgb="FFD45B5B"/>
       <color rgb="FFE9F1CC"/>
       <color rgb="FFFF5B87"/>
       <color rgb="FFFF0066"/>
-      <color rgb="FFF25050"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2091,11 +2117,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CV53"/>
+  <dimension ref="A1:CV58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K17" sqref="K17"/>
+      <selection pane="topRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2111,142 +2137,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:100" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="112" t="s">
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="122" t="s">
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="122" t="s">
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="109" t="s">
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="113"/>
-      <c r="AL1" s="109" t="s">
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="110"/>
-      <c r="AN1" s="110"/>
-      <c r="AO1" s="110"/>
-      <c r="AP1" s="110"/>
-      <c r="AQ1" s="110"/>
-      <c r="AR1" s="111"/>
-      <c r="AS1" s="112" t="s">
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="120"/>
+      <c r="AS1" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="110"/>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="113"/>
-      <c r="AZ1" s="109" t="s">
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="118"/>
+      <c r="AX1" s="118"/>
+      <c r="AY1" s="119"/>
+      <c r="AZ1" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="110"/>
-      <c r="BF1" s="113"/>
-      <c r="BG1" s="109" t="s">
+      <c r="BA1" s="118"/>
+      <c r="BB1" s="118"/>
+      <c r="BC1" s="118"/>
+      <c r="BD1" s="118"/>
+      <c r="BE1" s="118"/>
+      <c r="BF1" s="119"/>
+      <c r="BG1" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="BH1" s="110"/>
-      <c r="BI1" s="110"/>
-      <c r="BJ1" s="110"/>
-      <c r="BK1" s="110"/>
-      <c r="BL1" s="110"/>
-      <c r="BM1" s="113"/>
-      <c r="BN1" s="109" t="s">
+      <c r="BH1" s="118"/>
+      <c r="BI1" s="118"/>
+      <c r="BJ1" s="118"/>
+      <c r="BK1" s="118"/>
+      <c r="BL1" s="118"/>
+      <c r="BM1" s="119"/>
+      <c r="BN1" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="BO1" s="110"/>
-      <c r="BP1" s="110"/>
-      <c r="BQ1" s="110"/>
-      <c r="BR1" s="110"/>
-      <c r="BS1" s="110"/>
-      <c r="BT1" s="113"/>
-      <c r="BU1" s="109" t="s">
+      <c r="BO1" s="118"/>
+      <c r="BP1" s="118"/>
+      <c r="BQ1" s="118"/>
+      <c r="BR1" s="118"/>
+      <c r="BS1" s="118"/>
+      <c r="BT1" s="119"/>
+      <c r="BU1" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="BV1" s="110"/>
-      <c r="BW1" s="110"/>
-      <c r="BX1" s="110"/>
-      <c r="BY1" s="110"/>
-      <c r="BZ1" s="110"/>
-      <c r="CA1" s="113"/>
-      <c r="CB1" s="109" t="s">
+      <c r="BV1" s="118"/>
+      <c r="BW1" s="118"/>
+      <c r="BX1" s="118"/>
+      <c r="BY1" s="118"/>
+      <c r="BZ1" s="118"/>
+      <c r="CA1" s="119"/>
+      <c r="CB1" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="CC1" s="110"/>
-      <c r="CD1" s="110"/>
-      <c r="CE1" s="110"/>
-      <c r="CF1" s="110"/>
-      <c r="CG1" s="110"/>
-      <c r="CH1" s="113"/>
-      <c r="CI1" s="109" t="s">
+      <c r="CC1" s="118"/>
+      <c r="CD1" s="118"/>
+      <c r="CE1" s="118"/>
+      <c r="CF1" s="118"/>
+      <c r="CG1" s="118"/>
+      <c r="CH1" s="119"/>
+      <c r="CI1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="CJ1" s="110"/>
-      <c r="CK1" s="110"/>
-      <c r="CL1" s="110"/>
-      <c r="CM1" s="110"/>
-      <c r="CN1" s="110"/>
-      <c r="CO1" s="113"/>
-      <c r="CP1" s="109" t="s">
+      <c r="CJ1" s="118"/>
+      <c r="CK1" s="118"/>
+      <c r="CL1" s="118"/>
+      <c r="CM1" s="118"/>
+      <c r="CN1" s="118"/>
+      <c r="CO1" s="119"/>
+      <c r="CP1" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="CQ1" s="110"/>
-      <c r="CR1" s="110"/>
-      <c r="CS1" s="110"/>
-      <c r="CT1" s="110"/>
-      <c r="CU1" s="110"/>
-      <c r="CV1" s="113"/>
+      <c r="CQ1" s="118"/>
+      <c r="CR1" s="118"/>
+      <c r="CS1" s="118"/>
+      <c r="CT1" s="118"/>
+      <c r="CU1" s="118"/>
+      <c r="CV1" s="119"/>
     </row>
     <row r="2" spans="1:100" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115"/>
-      <c r="B2" s="117"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
@@ -2546,7 +2572,7 @@
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="75">
         <v>98</v>
       </c>
       <c r="C3" s="36"/>
@@ -2649,8 +2675,8 @@
       <c r="CV3" s="10"/>
     </row>
     <row r="4" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="36"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -2751,24 +2777,24 @@
       <c r="CV4" s="15"/>
     </row>
     <row r="5" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="92"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="90"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="26"/>
       <c r="S5" s="26"/>
@@ -2855,24 +2881,24 @@
       <c r="CV5" s="15"/>
     </row>
     <row r="6" spans="1:100" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="92"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="90"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="26"/>
       <c r="S6" s="26"/>
@@ -2959,24 +2985,24 @@
       <c r="CV6" s="15"/>
     </row>
     <row r="7" spans="1:100" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="92"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="90"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
@@ -3063,24 +3089,24 @@
       <c r="CV7" s="15"/>
     </row>
     <row r="8" spans="1:100" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="92"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="90"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="26"/>
       <c r="S8" s="26"/>
@@ -3167,24 +3193,24 @@
       <c r="CV8" s="15"/>
     </row>
     <row r="9" spans="1:100" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="92"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="90"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
@@ -3271,24 +3297,24 @@
       <c r="CV9" s="15"/>
     </row>
     <row r="10" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="134"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="116"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
@@ -3374,28 +3400,26 @@
       <c r="CU10" s="9"/>
       <c r="CV10" s="10"/>
     </row>
-    <row r="11" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="26"/>
+    <row r="11" spans="1:100" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="27"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
@@ -3423,9 +3447,9 @@
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="52"/>
-      <c r="AS11" s="16"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="9"/>
+      <c r="AS11" s="133"/>
+      <c r="AT11" s="133"/>
+      <c r="AU11" s="17"/>
       <c r="AV11" s="58"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
@@ -3480,231 +3504,235 @@
       <c r="CU11" s="9"/>
       <c r="CV11" s="10"/>
     </row>
-    <row r="12" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="26"/>
+    <row r="12" spans="1:100" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="76"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
       <c r="V12" s="26"/>
       <c r="W12" s="28"/>
-      <c r="X12" s="26"/>
+      <c r="X12" s="27"/>
       <c r="Y12" s="26"/>
       <c r="Z12" s="26"/>
       <c r="AA12" s="26"/>
       <c r="AB12" s="26"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="28"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="60"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="57"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="52"/>
+      <c r="AS12" s="133"/>
+      <c r="AT12" s="133"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="58"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
       <c r="AY12" s="10"/>
       <c r="AZ12" s="11"/>
       <c r="BA12" s="8"/>
-      <c r="BB12" s="18"/>
-      <c r="BC12" s="17"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
       <c r="BD12" s="9"/>
       <c r="BE12" s="9"/>
       <c r="BF12" s="10"/>
       <c r="BG12" s="11"/>
       <c r="BH12" s="8"/>
-      <c r="BI12" s="18"/>
-      <c r="BJ12" s="17"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
       <c r="BK12" s="9"/>
       <c r="BL12" s="9"/>
       <c r="BM12" s="10"/>
       <c r="BN12" s="11"/>
       <c r="BO12" s="8"/>
-      <c r="BP12" s="18"/>
-      <c r="BQ12" s="17"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
       <c r="BR12" s="9"/>
       <c r="BS12" s="9"/>
       <c r="BT12" s="10"/>
       <c r="BU12" s="11"/>
       <c r="BV12" s="8"/>
-      <c r="BW12" s="18"/>
-      <c r="BX12" s="17"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
       <c r="BY12" s="9"/>
       <c r="BZ12" s="9"/>
       <c r="CA12" s="10"/>
       <c r="CB12" s="11"/>
       <c r="CC12" s="8"/>
-      <c r="CD12" s="18"/>
-      <c r="CE12" s="17"/>
+      <c r="CD12" s="9"/>
+      <c r="CE12" s="9"/>
       <c r="CF12" s="9"/>
       <c r="CG12" s="9"/>
       <c r="CH12" s="10"/>
       <c r="CI12" s="11"/>
       <c r="CJ12" s="8"/>
-      <c r="CK12" s="18"/>
-      <c r="CL12" s="17"/>
+      <c r="CK12" s="9"/>
+      <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
       <c r="CO12" s="10"/>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="8"/>
-      <c r="CR12" s="18"/>
-      <c r="CS12" s="17"/>
+      <c r="CR12" s="9"/>
+      <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
       <c r="CV12" s="10"/>
     </row>
-    <row r="13" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="132" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="26"/>
+    <row r="13" spans="1:100" ht="15.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
       <c r="W13" s="28"/>
-      <c r="X13" s="26"/>
+      <c r="X13" s="27"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="28"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="130"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="131"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="129"/>
-      <c r="AM13" s="130"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="57"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="60"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="18"/>
-      <c r="AV13" s="57"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="133"/>
+      <c r="AT13" s="133"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="58"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
       <c r="AY13" s="10"/>
       <c r="AZ13" s="11"/>
       <c r="BA13" s="8"/>
-      <c r="BB13" s="18"/>
-      <c r="BC13" s="17"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
       <c r="BD13" s="9"/>
       <c r="BE13" s="9"/>
       <c r="BF13" s="10"/>
       <c r="BG13" s="11"/>
       <c r="BH13" s="8"/>
-      <c r="BI13" s="18"/>
-      <c r="BJ13" s="17"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
       <c r="BK13" s="9"/>
       <c r="BL13" s="9"/>
       <c r="BM13" s="10"/>
       <c r="BN13" s="11"/>
       <c r="BO13" s="8"/>
-      <c r="BP13" s="18"/>
-      <c r="BQ13" s="17"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="9"/>
       <c r="BR13" s="9"/>
       <c r="BS13" s="9"/>
       <c r="BT13" s="10"/>
       <c r="BU13" s="11"/>
       <c r="BV13" s="8"/>
-      <c r="BW13" s="18"/>
-      <c r="BX13" s="17"/>
+      <c r="BW13" s="9"/>
+      <c r="BX13" s="9"/>
       <c r="BY13" s="9"/>
       <c r="BZ13" s="9"/>
       <c r="CA13" s="10"/>
       <c r="CB13" s="11"/>
       <c r="CC13" s="8"/>
-      <c r="CD13" s="18"/>
-      <c r="CE13" s="17"/>
+      <c r="CD13" s="9"/>
+      <c r="CE13" s="9"/>
       <c r="CF13" s="9"/>
       <c r="CG13" s="9"/>
       <c r="CH13" s="10"/>
       <c r="CI13" s="11"/>
       <c r="CJ13" s="8"/>
-      <c r="CK13" s="18"/>
-      <c r="CL13" s="17"/>
+      <c r="CK13" s="9"/>
+      <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
       <c r="CO13" s="10"/>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="8"/>
-      <c r="CR13" s="18"/>
-      <c r="CS13" s="17"/>
+      <c r="CR13" s="9"/>
+      <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
       <c r="CV13" s="10"/>
     </row>
     <row r="14" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="92"/>
+      <c r="A14" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="76"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="116"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
@@ -3712,101 +3740,103 @@
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
       <c r="W14" s="28"/>
-      <c r="X14" s="26"/>
+      <c r="X14" s="27"/>
       <c r="Y14" s="26"/>
       <c r="Z14" s="26"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="28"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="130"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="131"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="129"/>
-      <c r="AM14" s="130"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="60"/>
-      <c r="AS14" s="11"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="18"/>
-      <c r="AV14" s="57"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="52"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="58"/>
       <c r="AW14" s="9"/>
       <c r="AX14" s="9"/>
       <c r="AY14" s="10"/>
       <c r="AZ14" s="11"/>
       <c r="BA14" s="8"/>
-      <c r="BB14" s="18"/>
-      <c r="BC14" s="17"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
       <c r="BD14" s="9"/>
       <c r="BE14" s="9"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="11"/>
       <c r="BH14" s="8"/>
-      <c r="BI14" s="18"/>
-      <c r="BJ14" s="17"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
       <c r="BK14" s="9"/>
       <c r="BL14" s="9"/>
       <c r="BM14" s="10"/>
       <c r="BN14" s="11"/>
       <c r="BO14" s="8"/>
-      <c r="BP14" s="18"/>
-      <c r="BQ14" s="17"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
       <c r="BR14" s="9"/>
       <c r="BS14" s="9"/>
       <c r="BT14" s="10"/>
       <c r="BU14" s="11"/>
       <c r="BV14" s="8"/>
-      <c r="BW14" s="18"/>
-      <c r="BX14" s="17"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
       <c r="BY14" s="9"/>
       <c r="BZ14" s="9"/>
       <c r="CA14" s="10"/>
       <c r="CB14" s="11"/>
       <c r="CC14" s="8"/>
-      <c r="CD14" s="18"/>
-      <c r="CE14" s="17"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
       <c r="CF14" s="9"/>
       <c r="CG14" s="9"/>
       <c r="CH14" s="10"/>
       <c r="CI14" s="11"/>
       <c r="CJ14" s="8"/>
-      <c r="CK14" s="18"/>
-      <c r="CL14" s="17"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="10"/>
       <c r="CP14" s="11"/>
       <c r="CQ14" s="8"/>
-      <c r="CR14" s="18"/>
-      <c r="CS14" s="17"/>
+      <c r="CR14" s="9"/>
+      <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
       <c r="CV14" s="10"/>
     </row>
     <row r="15" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="92"/>
+      <c r="A15" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="76"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="116"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -3821,15 +3851,15 @@
       <c r="AB15" s="26"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="28"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="130"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="131"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="57"/>
       <c r="AI15" s="58"/>
       <c r="AJ15" s="58"/>
       <c r="AK15" s="59"/>
-      <c r="AL15" s="129"/>
-      <c r="AM15" s="130"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="55"/>
       <c r="AN15" s="56"/>
       <c r="AO15" s="57"/>
       <c r="AP15" s="58"/>
@@ -3893,47 +3923,47 @@
       <c r="CV15" s="10"/>
     </row>
     <row r="16" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="91"/>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
+      <c r="A16" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="111"/>
+      <c r="AH16" s="113"/>
       <c r="AI16" s="58"/>
       <c r="AJ16" s="58"/>
       <c r="AK16" s="59"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="13"/>
+      <c r="AL16" s="111"/>
+      <c r="AM16" s="112"/>
       <c r="AN16" s="56"/>
       <c r="AO16" s="57"/>
       <c r="AP16" s="58"/>
@@ -3997,73 +4027,73 @@
       <c r="CV16" s="10"/>
     </row>
     <row r="17" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="26"/>
+      <c r="A17" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="76"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="57"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="60"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="8"/>
-      <c r="AU17" s="18"/>
-      <c r="AV17" s="57"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="8"/>
-      <c r="BB17" s="18"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
-      <c r="BF17" s="10"/>
-      <c r="BG17" s="11"/>
-      <c r="BH17" s="8"/>
-      <c r="BI17" s="18"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="9"/>
-      <c r="BL17" s="9"/>
-      <c r="BM17" s="10"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="100"/>
+      <c r="AK17" s="101"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="98"/>
+      <c r="AN17" s="102"/>
+      <c r="AO17" s="103"/>
+      <c r="AP17" s="100"/>
+      <c r="AQ17" s="100"/>
+      <c r="AR17" s="104"/>
+      <c r="AS17" s="105"/>
+      <c r="AT17" s="106"/>
+      <c r="AU17" s="102"/>
+      <c r="AV17" s="103"/>
+      <c r="AW17" s="100"/>
+      <c r="AX17" s="100"/>
+      <c r="AY17" s="101"/>
+      <c r="AZ17" s="105"/>
+      <c r="BA17" s="106"/>
+      <c r="BB17" s="102"/>
+      <c r="BC17" s="103"/>
+      <c r="BD17" s="100"/>
+      <c r="BE17" s="100"/>
+      <c r="BF17" s="101"/>
+      <c r="BG17" s="105"/>
+      <c r="BH17" s="106"/>
+      <c r="BI17" s="102"/>
+      <c r="BJ17" s="103"/>
+      <c r="BK17" s="100"/>
+      <c r="BL17" s="100"/>
+      <c r="BM17" s="101"/>
       <c r="BN17" s="11"/>
       <c r="BO17" s="8"/>
       <c r="BP17" s="18"/>
@@ -4071,20 +4101,20 @@
       <c r="BR17" s="9"/>
       <c r="BS17" s="9"/>
       <c r="BT17" s="10"/>
-      <c r="BU17" s="85"/>
-      <c r="BV17" s="86"/>
-      <c r="BW17" s="87"/>
-      <c r="BX17" s="88"/>
-      <c r="BY17" s="89"/>
-      <c r="BZ17" s="89"/>
-      <c r="CA17" s="90"/>
-      <c r="CB17" s="85"/>
-      <c r="CC17" s="86"/>
-      <c r="CD17" s="87"/>
-      <c r="CE17" s="88"/>
-      <c r="CF17" s="89"/>
-      <c r="CG17" s="89"/>
-      <c r="CH17" s="90"/>
+      <c r="BU17" s="11"/>
+      <c r="BV17" s="8"/>
+      <c r="BW17" s="18"/>
+      <c r="BX17" s="17"/>
+      <c r="BY17" s="9"/>
+      <c r="BZ17" s="9"/>
+      <c r="CA17" s="10"/>
+      <c r="CB17" s="11"/>
+      <c r="CC17" s="8"/>
+      <c r="CD17" s="18"/>
+      <c r="CE17" s="17"/>
+      <c r="CF17" s="9"/>
+      <c r="CG17" s="9"/>
+      <c r="CH17" s="10"/>
       <c r="CI17" s="11"/>
       <c r="CJ17" s="8"/>
       <c r="CK17" s="18"/>
@@ -4101,14 +4131,14 @@
       <c r="CV17" s="10"/>
     </row>
     <row r="18" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="67"/>
+      <c r="A18" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="76"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="28"/>
@@ -4119,20 +4149,20 @@
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
       <c r="P18" s="28"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="28"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="90"/>
       <c r="AE18" s="16"/>
       <c r="AF18" s="13"/>
       <c r="AG18" s="14"/>
@@ -4205,14 +4235,14 @@
       <c r="CV18" s="10"/>
     </row>
     <row r="19" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="67"/>
+      <c r="A19" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="76"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="28"/>
@@ -4223,29 +4253,29 @@
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
       <c r="P19" s="28"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
       <c r="AI19" s="58"/>
       <c r="AJ19" s="58"/>
       <c r="AK19" s="59"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="8"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="13"/>
       <c r="AN19" s="56"/>
       <c r="AO19" s="57"/>
       <c r="AP19" s="58"/>
@@ -4309,73 +4339,73 @@
       <c r="CV19" s="10"/>
     </row>
     <row r="20" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="67"/>
+      <c r="A20" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="76"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="101"/>
-      <c r="AH20" s="101"/>
-      <c r="AI20" s="102"/>
-      <c r="AJ20" s="102"/>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="100"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="105"/>
-      <c r="AP20" s="102"/>
-      <c r="AQ20" s="102"/>
-      <c r="AR20" s="106"/>
-      <c r="AS20" s="107"/>
-      <c r="AT20" s="108"/>
-      <c r="AU20" s="104"/>
-      <c r="AV20" s="105"/>
-      <c r="AW20" s="102"/>
-      <c r="AX20" s="102"/>
-      <c r="AY20" s="103"/>
-      <c r="AZ20" s="107"/>
-      <c r="BA20" s="108"/>
-      <c r="BB20" s="104"/>
-      <c r="BC20" s="105"/>
-      <c r="BD20" s="102"/>
-      <c r="BE20" s="102"/>
-      <c r="BF20" s="103"/>
-      <c r="BG20" s="107"/>
-      <c r="BH20" s="108"/>
-      <c r="BI20" s="104"/>
-      <c r="BJ20" s="105"/>
-      <c r="BK20" s="102"/>
-      <c r="BL20" s="102"/>
-      <c r="BM20" s="103"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="58"/>
+      <c r="AQ20" s="58"/>
+      <c r="AR20" s="60"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="18"/>
+      <c r="BC20" s="17"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="10"/>
+      <c r="BG20" s="11"/>
+      <c r="BH20" s="8"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="17"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="10"/>
       <c r="BN20" s="11"/>
       <c r="BO20" s="8"/>
       <c r="BP20" s="18"/>
@@ -4383,20 +4413,20 @@
       <c r="BR20" s="9"/>
       <c r="BS20" s="9"/>
       <c r="BT20" s="10"/>
-      <c r="BU20" s="11"/>
-      <c r="BV20" s="8"/>
-      <c r="BW20" s="18"/>
-      <c r="BX20" s="17"/>
-      <c r="BY20" s="9"/>
-      <c r="BZ20" s="9"/>
-      <c r="CA20" s="10"/>
-      <c r="CB20" s="11"/>
-      <c r="CC20" s="8"/>
-      <c r="CD20" s="18"/>
-      <c r="CE20" s="17"/>
-      <c r="CF20" s="9"/>
-      <c r="CG20" s="9"/>
-      <c r="CH20" s="10"/>
+      <c r="BU20" s="83"/>
+      <c r="BV20" s="84"/>
+      <c r="BW20" s="85"/>
+      <c r="BX20" s="86"/>
+      <c r="BY20" s="87"/>
+      <c r="BZ20" s="87"/>
+      <c r="CA20" s="88"/>
+      <c r="CB20" s="83"/>
+      <c r="CC20" s="84"/>
+      <c r="CD20" s="85"/>
+      <c r="CE20" s="86"/>
+      <c r="CF20" s="87"/>
+      <c r="CG20" s="87"/>
+      <c r="CH20" s="88"/>
       <c r="CI20" s="11"/>
       <c r="CJ20" s="8"/>
       <c r="CK20" s="18"/>
@@ -4413,14 +4443,11 @@
       <c r="CV20" s="10"/>
     </row>
     <row r="21" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="28"/>
@@ -4445,15 +4472,15 @@
       <c r="AB21" s="26"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="28"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
       <c r="AI21" s="58"/>
       <c r="AJ21" s="58"/>
       <c r="AK21" s="59"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="8"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="13"/>
       <c r="AN21" s="56"/>
       <c r="AO21" s="57"/>
       <c r="AP21" s="58"/>
@@ -4480,52 +4507,51 @@
       <c r="BK21" s="9"/>
       <c r="BL21" s="9"/>
       <c r="BM21" s="10"/>
-      <c r="BN21" s="107"/>
-      <c r="BO21" s="108"/>
-      <c r="BP21" s="104"/>
-      <c r="BQ21" s="105"/>
-      <c r="BR21" s="102"/>
-      <c r="BS21" s="102"/>
-      <c r="BT21" s="103"/>
-      <c r="BU21" s="107"/>
-      <c r="BV21" s="108"/>
-      <c r="BW21" s="104"/>
-      <c r="BX21" s="105"/>
-      <c r="BY21" s="102"/>
-      <c r="BZ21" s="102"/>
-      <c r="CA21" s="103"/>
-      <c r="CB21" s="107"/>
-      <c r="CC21" s="108"/>
-      <c r="CD21" s="104"/>
-      <c r="CE21" s="105"/>
-      <c r="CF21" s="102"/>
-      <c r="CG21" s="102"/>
-      <c r="CH21" s="103"/>
-      <c r="CI21" s="107"/>
-      <c r="CJ21" s="108"/>
-      <c r="CK21" s="104"/>
-      <c r="CL21" s="105"/>
-      <c r="CM21" s="102"/>
-      <c r="CN21" s="102"/>
-      <c r="CO21" s="103"/>
-      <c r="CP21" s="107"/>
-      <c r="CQ21" s="108"/>
-      <c r="CR21" s="104"/>
-      <c r="CS21" s="105"/>
-      <c r="CT21" s="102"/>
-      <c r="CU21" s="102"/>
-      <c r="CV21" s="103"/>
+      <c r="BN21" s="11"/>
+      <c r="BO21" s="8"/>
+      <c r="BP21" s="18"/>
+      <c r="BQ21" s="17"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="10"/>
+      <c r="BU21" s="11"/>
+      <c r="BV21" s="8"/>
+      <c r="BW21" s="18"/>
+      <c r="BX21" s="17"/>
+      <c r="BY21" s="9"/>
+      <c r="BZ21" s="9"/>
+      <c r="CA21" s="10"/>
+      <c r="CB21" s="11"/>
+      <c r="CC21" s="8"/>
+      <c r="CD21" s="18"/>
+      <c r="CE21" s="17"/>
+      <c r="CF21" s="9"/>
+      <c r="CG21" s="9"/>
+      <c r="CH21" s="10"/>
+      <c r="CI21" s="11"/>
+      <c r="CJ21" s="8"/>
+      <c r="CK21" s="18"/>
+      <c r="CL21" s="17"/>
+      <c r="CM21" s="9"/>
+      <c r="CN21" s="9"/>
+      <c r="CO21" s="10"/>
+      <c r="CP21" s="11"/>
+      <c r="CQ21" s="8"/>
+      <c r="CR21" s="18"/>
+      <c r="CS21" s="17"/>
+      <c r="CT21" s="9"/>
+      <c r="CU21" s="9"/>
+      <c r="CV21" s="10"/>
     </row>
     <row r="22" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="27"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="74"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
@@ -4547,15 +4573,15 @@
       <c r="AB22" s="26"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="28"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
       <c r="AI22" s="58"/>
       <c r="AJ22" s="58"/>
       <c r="AK22" s="59"/>
-      <c r="AL22" s="16"/>
-      <c r="AM22" s="13"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="8"/>
       <c r="AN22" s="56"/>
       <c r="AO22" s="57"/>
       <c r="AP22" s="58"/>
@@ -4619,15 +4645,17 @@
       <c r="CV22" s="10"/>
     </row>
     <row r="23" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="75"/>
+      <c r="A23" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="58"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="76"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="74"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="74"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
@@ -4721,15 +4749,17 @@
       <c r="CV23" s="10"/>
     </row>
     <row r="24" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="26"/>
+      <c r="A24" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="77"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="74"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="74"/>
+      <c r="I24" s="72"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
@@ -4751,15 +4781,15 @@
       <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="28"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
       <c r="AI24" s="58"/>
       <c r="AJ24" s="58"/>
       <c r="AK24" s="59"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="13"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="8"/>
       <c r="AN24" s="56"/>
       <c r="AO24" s="57"/>
       <c r="AP24" s="58"/>
@@ -4823,15 +4853,15 @@
       <c r="CV24" s="10"/>
     </row>
     <row r="25" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="74"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
@@ -4853,15 +4883,15 @@
       <c r="AB25" s="26"/>
       <c r="AC25" s="26"/>
       <c r="AD25" s="28"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
       <c r="AI25" s="58"/>
       <c r="AJ25" s="58"/>
       <c r="AK25" s="59"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="8"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="13"/>
       <c r="AN25" s="56"/>
       <c r="AO25" s="57"/>
       <c r="AP25" s="58"/>
@@ -4925,15 +4955,15 @@
       <c r="CV25" s="10"/>
     </row>
     <row r="26" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="74"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="74"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
@@ -4955,15 +4985,15 @@
       <c r="AB26" s="26"/>
       <c r="AC26" s="26"/>
       <c r="AD26" s="28"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
       <c r="AI26" s="58"/>
       <c r="AJ26" s="58"/>
       <c r="AK26" s="59"/>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="13"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="8"/>
       <c r="AN26" s="56"/>
       <c r="AO26" s="57"/>
       <c r="AP26" s="58"/>
@@ -5027,15 +5057,15 @@
       <c r="CV26" s="10"/>
     </row>
     <row r="27" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="28"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
@@ -5043,7 +5073,7 @@
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
       <c r="P27" s="28"/>
-      <c r="Q27" s="27"/>
+      <c r="Q27" s="26"/>
       <c r="R27" s="26"/>
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
@@ -5057,20 +5087,20 @@
       <c r="AB27" s="26"/>
       <c r="AC27" s="26"/>
       <c r="AD27" s="28"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
       <c r="AI27" s="58"/>
       <c r="AJ27" s="58"/>
       <c r="AK27" s="59"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="8"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="13"/>
       <c r="AN27" s="56"/>
       <c r="AO27" s="57"/>
       <c r="AP27" s="58"/>
       <c r="AQ27" s="58"/>
-      <c r="AR27" s="61"/>
+      <c r="AR27" s="60"/>
       <c r="AS27" s="11"/>
       <c r="AT27" s="8"/>
       <c r="AU27" s="18"/>
@@ -5129,23 +5159,23 @@
       <c r="CV27" s="10"/>
     </row>
     <row r="28" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="27"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="27"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
       <c r="P28" s="28"/>
-      <c r="Q28" s="27"/>
+      <c r="Q28" s="26"/>
       <c r="R28" s="26"/>
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
@@ -5159,20 +5189,20 @@
       <c r="AB28" s="26"/>
       <c r="AC28" s="26"/>
       <c r="AD28" s="28"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
       <c r="AI28" s="58"/>
       <c r="AJ28" s="58"/>
       <c r="AK28" s="59"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="13"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="8"/>
       <c r="AN28" s="56"/>
       <c r="AO28" s="57"/>
       <c r="AP28" s="58"/>
       <c r="AQ28" s="58"/>
-      <c r="AR28" s="61"/>
+      <c r="AR28" s="60"/>
       <c r="AS28" s="11"/>
       <c r="AT28" s="8"/>
       <c r="AU28" s="18"/>
@@ -5231,23 +5261,23 @@
       <c r="CV28" s="10"/>
     </row>
     <row r="29" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="76"/>
       <c r="C29" s="27"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="27"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
       <c r="P29" s="28"/>
-      <c r="Q29" s="27"/>
+      <c r="Q29" s="26"/>
       <c r="R29" s="26"/>
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
@@ -5261,20 +5291,20 @@
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="28"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
       <c r="AI29" s="58"/>
       <c r="AJ29" s="58"/>
       <c r="AK29" s="59"/>
-      <c r="AL29" s="54"/>
-      <c r="AM29" s="55"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="13"/>
       <c r="AN29" s="56"/>
       <c r="AO29" s="57"/>
       <c r="AP29" s="58"/>
       <c r="AQ29" s="58"/>
-      <c r="AR29" s="61"/>
+      <c r="AR29" s="60"/>
       <c r="AS29" s="11"/>
       <c r="AT29" s="8"/>
       <c r="AU29" s="18"/>
@@ -5333,8 +5363,8 @@
       <c r="CV29" s="10"/>
     </row>
     <row r="30" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="27"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -5342,13 +5372,13 @@
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="27"/>
+      <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="29"/>
+      <c r="P30" s="28"/>
       <c r="Q30" s="27"/>
       <c r="R30" s="26"/>
       <c r="S30" s="26"/>
@@ -5356,22 +5386,22 @@
       <c r="U30" s="26"/>
       <c r="V30" s="26"/>
       <c r="W30" s="28"/>
-      <c r="X30" s="27"/>
+      <c r="X30" s="26"/>
       <c r="Y30" s="26"/>
       <c r="Z30" s="26"/>
       <c r="AA30" s="26"/>
       <c r="AB30" s="26"/>
       <c r="AC30" s="26"/>
       <c r="AD30" s="28"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
       <c r="AI30" s="58"/>
       <c r="AJ30" s="58"/>
       <c r="AK30" s="59"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="55"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="8"/>
       <c r="AN30" s="56"/>
       <c r="AO30" s="57"/>
       <c r="AP30" s="58"/>
@@ -5435,8 +5465,8 @@
       <c r="CV30" s="10"/>
     </row>
     <row r="31" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="76"/>
       <c r="C31" s="27"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
@@ -5450,7 +5480,7 @@
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="29"/>
+      <c r="P31" s="28"/>
       <c r="Q31" s="27"/>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
@@ -5458,22 +5488,22 @@
       <c r="U31" s="26"/>
       <c r="V31" s="26"/>
       <c r="W31" s="28"/>
-      <c r="X31" s="27"/>
+      <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
       <c r="Z31" s="26"/>
       <c r="AA31" s="26"/>
       <c r="AB31" s="26"/>
       <c r="AC31" s="26"/>
       <c r="AD31" s="28"/>
-      <c r="AE31" s="54"/>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="57"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
       <c r="AI31" s="58"/>
       <c r="AJ31" s="58"/>
       <c r="AK31" s="59"/>
-      <c r="AL31" s="54"/>
-      <c r="AM31" s="55"/>
+      <c r="AL31" s="16"/>
+      <c r="AM31" s="13"/>
       <c r="AN31" s="56"/>
       <c r="AO31" s="57"/>
       <c r="AP31" s="58"/>
@@ -5537,8 +5567,8 @@
       <c r="CV31" s="10"/>
     </row>
     <row r="32" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="27"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -5552,7 +5582,7 @@
       <c r="M32" s="26"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
-      <c r="P32" s="29"/>
+      <c r="P32" s="28"/>
       <c r="Q32" s="27"/>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
@@ -5560,17 +5590,17 @@
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
       <c r="W32" s="28"/>
-      <c r="X32" s="27"/>
+      <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
       <c r="AA32" s="26"/>
       <c r="AB32" s="26"/>
       <c r="AC32" s="26"/>
       <c r="AD32" s="28"/>
-      <c r="AE32" s="54"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="57"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
       <c r="AI32" s="58"/>
       <c r="AJ32" s="58"/>
       <c r="AK32" s="59"/>
@@ -5639,8 +5669,8 @@
       <c r="CV32" s="10"/>
     </row>
     <row r="33" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="27"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
@@ -5669,10 +5699,10 @@
       <c r="AB33" s="26"/>
       <c r="AC33" s="26"/>
       <c r="AD33" s="28"/>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="55"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="57"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
       <c r="AI33" s="58"/>
       <c r="AJ33" s="58"/>
       <c r="AK33" s="59"/>
@@ -5742,7 +5772,7 @@
     </row>
     <row r="34" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
-      <c r="B34" s="78"/>
+      <c r="B34" s="76"/>
       <c r="C34" s="27"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -5844,7 +5874,7 @@
     </row>
     <row r="35" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
-      <c r="B35" s="78"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="27"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
@@ -5946,7 +5976,7 @@
     </row>
     <row r="36" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
-      <c r="B36" s="78"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="27"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
@@ -6048,7 +6078,7 @@
     </row>
     <row r="37" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
-      <c r="B37" s="78"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="27"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
@@ -6150,7 +6180,7 @@
     </row>
     <row r="38" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49"/>
-      <c r="B38" s="78"/>
+      <c r="B38" s="76"/>
       <c r="C38" s="27"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
@@ -6250,11 +6280,9 @@
       <c r="CU38" s="9"/>
       <c r="CV38" s="10"/>
     </row>
-    <row r="39" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="78"/>
+    <row r="39" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="49"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="27"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
@@ -6283,20 +6311,20 @@
       <c r="AB39" s="26"/>
       <c r="AC39" s="26"/>
       <c r="AD39" s="28"/>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="17"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9"/>
-      <c r="AK39" s="10"/>
-      <c r="AL39" s="11"/>
-      <c r="AM39" s="8"/>
-      <c r="AN39" s="18"/>
-      <c r="AO39" s="17"/>
-      <c r="AP39" s="9"/>
-      <c r="AQ39" s="9"/>
-      <c r="AR39" s="52"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="55"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="58"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="57"/>
+      <c r="AP39" s="58"/>
+      <c r="AQ39" s="58"/>
+      <c r="AR39" s="61"/>
       <c r="AS39" s="11"/>
       <c r="AT39" s="8"/>
       <c r="AU39" s="18"/>
@@ -6354,150 +6382,447 @@
       <c r="CU39" s="9"/>
       <c r="CV39" s="10"/>
     </row>
-    <row r="40" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="35"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="20"/>
-      <c r="AH40" s="20"/>
-      <c r="AI40" s="20"/>
-      <c r="AJ40" s="20"/>
-      <c r="AK40" s="21"/>
-      <c r="AL40" s="22"/>
-      <c r="AM40" s="20"/>
-      <c r="AN40" s="20"/>
-      <c r="AO40" s="20"/>
-      <c r="AP40" s="20"/>
-      <c r="AQ40" s="20"/>
-      <c r="AR40" s="53"/>
-      <c r="AS40" s="22"/>
-      <c r="AT40" s="20"/>
-      <c r="AU40" s="20"/>
-      <c r="AV40" s="64"/>
-      <c r="AW40" s="20"/>
-      <c r="AX40" s="20"/>
-      <c r="AY40" s="21"/>
-      <c r="AZ40" s="22"/>
-      <c r="BA40" s="20"/>
-      <c r="BB40" s="20"/>
-      <c r="BC40" s="20"/>
-      <c r="BD40" s="20"/>
-      <c r="BE40" s="20"/>
-      <c r="BF40" s="21"/>
-      <c r="BG40" s="22"/>
-      <c r="BH40" s="20"/>
-      <c r="BI40" s="20"/>
-      <c r="BJ40" s="20"/>
-      <c r="BK40" s="20"/>
-      <c r="BL40" s="20"/>
-      <c r="BM40" s="21"/>
-      <c r="BN40" s="22"/>
-      <c r="BO40" s="20"/>
-      <c r="BP40" s="20"/>
-      <c r="BQ40" s="20"/>
-      <c r="BR40" s="20"/>
-      <c r="BS40" s="20"/>
-      <c r="BT40" s="21"/>
-      <c r="BU40" s="22"/>
-      <c r="BV40" s="20"/>
-      <c r="BW40" s="20"/>
-      <c r="BX40" s="20"/>
-      <c r="BY40" s="20"/>
-      <c r="BZ40" s="20"/>
-      <c r="CA40" s="21"/>
-      <c r="CB40" s="22"/>
-      <c r="CC40" s="20"/>
-      <c r="CD40" s="20"/>
-      <c r="CE40" s="20"/>
-      <c r="CF40" s="20"/>
-      <c r="CG40" s="20"/>
-      <c r="CH40" s="21"/>
-      <c r="CI40" s="22"/>
-      <c r="CJ40" s="20"/>
-      <c r="CK40" s="20"/>
-      <c r="CL40" s="20"/>
-      <c r="CM40" s="20"/>
-      <c r="CN40" s="20"/>
-      <c r="CO40" s="21"/>
-      <c r="CP40" s="22"/>
-      <c r="CQ40" s="20"/>
-      <c r="CR40" s="20"/>
-      <c r="CS40" s="20"/>
-      <c r="CT40" s="20"/>
-      <c r="CU40" s="20"/>
-      <c r="CV40" s="21"/>
+    <row r="40" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="49"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="56"/>
+      <c r="AH40" s="57"/>
+      <c r="AI40" s="58"/>
+      <c r="AJ40" s="58"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="54"/>
+      <c r="AM40" s="55"/>
+      <c r="AN40" s="56"/>
+      <c r="AO40" s="57"/>
+      <c r="AP40" s="58"/>
+      <c r="AQ40" s="58"/>
+      <c r="AR40" s="61"/>
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="8"/>
+      <c r="AU40" s="18"/>
+      <c r="AV40" s="57"/>
+      <c r="AW40" s="9"/>
+      <c r="AX40" s="9"/>
+      <c r="AY40" s="10"/>
+      <c r="AZ40" s="11"/>
+      <c r="BA40" s="8"/>
+      <c r="BB40" s="18"/>
+      <c r="BC40" s="17"/>
+      <c r="BD40" s="9"/>
+      <c r="BE40" s="9"/>
+      <c r="BF40" s="10"/>
+      <c r="BG40" s="11"/>
+      <c r="BH40" s="8"/>
+      <c r="BI40" s="18"/>
+      <c r="BJ40" s="17"/>
+      <c r="BK40" s="9"/>
+      <c r="BL40" s="9"/>
+      <c r="BM40" s="10"/>
+      <c r="BN40" s="11"/>
+      <c r="BO40" s="8"/>
+      <c r="BP40" s="18"/>
+      <c r="BQ40" s="17"/>
+      <c r="BR40" s="9"/>
+      <c r="BS40" s="9"/>
+      <c r="BT40" s="10"/>
+      <c r="BU40" s="11"/>
+      <c r="BV40" s="8"/>
+      <c r="BW40" s="18"/>
+      <c r="BX40" s="17"/>
+      <c r="BY40" s="9"/>
+      <c r="BZ40" s="9"/>
+      <c r="CA40" s="10"/>
+      <c r="CB40" s="11"/>
+      <c r="CC40" s="8"/>
+      <c r="CD40" s="18"/>
+      <c r="CE40" s="17"/>
+      <c r="CF40" s="9"/>
+      <c r="CG40" s="9"/>
+      <c r="CH40" s="10"/>
+      <c r="CI40" s="11"/>
+      <c r="CJ40" s="8"/>
+      <c r="CK40" s="18"/>
+      <c r="CL40" s="17"/>
+      <c r="CM40" s="9"/>
+      <c r="CN40" s="9"/>
+      <c r="CO40" s="10"/>
+      <c r="CP40" s="11"/>
+      <c r="CQ40" s="8"/>
+      <c r="CR40" s="18"/>
+      <c r="CS40" s="17"/>
+      <c r="CT40" s="9"/>
+      <c r="CU40" s="9"/>
+      <c r="CV40" s="10"/>
     </row>
-    <row r="41" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="B41" s="23">
-        <f>B3-SUM(B5:B40)</f>
-        <v>98</v>
-      </c>
+    <row r="41" spans="1:100" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="55"/>
+      <c r="AG41" s="56"/>
+      <c r="AH41" s="57"/>
+      <c r="AI41" s="58"/>
+      <c r="AJ41" s="58"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="54"/>
+      <c r="AM41" s="55"/>
+      <c r="AN41" s="56"/>
+      <c r="AO41" s="57"/>
+      <c r="AP41" s="58"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="61"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="18"/>
+      <c r="AV41" s="57"/>
+      <c r="AW41" s="9"/>
+      <c r="AX41" s="9"/>
+      <c r="AY41" s="10"/>
+      <c r="AZ41" s="11"/>
+      <c r="BA41" s="8"/>
+      <c r="BB41" s="18"/>
+      <c r="BC41" s="17"/>
+      <c r="BD41" s="9"/>
+      <c r="BE41" s="9"/>
+      <c r="BF41" s="10"/>
+      <c r="BG41" s="11"/>
+      <c r="BH41" s="8"/>
+      <c r="BI41" s="18"/>
+      <c r="BJ41" s="17"/>
+      <c r="BK41" s="9"/>
+      <c r="BL41" s="9"/>
+      <c r="BM41" s="10"/>
+      <c r="BN41" s="11"/>
+      <c r="BO41" s="8"/>
+      <c r="BP41" s="18"/>
+      <c r="BQ41" s="17"/>
+      <c r="BR41" s="9"/>
+      <c r="BS41" s="9"/>
+      <c r="BT41" s="10"/>
+      <c r="BU41" s="11"/>
+      <c r="BV41" s="8"/>
+      <c r="BW41" s="18"/>
+      <c r="BX41" s="17"/>
+      <c r="BY41" s="9"/>
+      <c r="BZ41" s="9"/>
+      <c r="CA41" s="10"/>
+      <c r="CB41" s="11"/>
+      <c r="CC41" s="8"/>
+      <c r="CD41" s="18"/>
+      <c r="CE41" s="17"/>
+      <c r="CF41" s="9"/>
+      <c r="CG41" s="9"/>
+      <c r="CH41" s="10"/>
+      <c r="CI41" s="11"/>
+      <c r="CJ41" s="8"/>
+      <c r="CK41" s="18"/>
+      <c r="CL41" s="17"/>
+      <c r="CM41" s="9"/>
+      <c r="CN41" s="9"/>
+      <c r="CO41" s="10"/>
+      <c r="CP41" s="11"/>
+      <c r="CQ41" s="8"/>
+      <c r="CR41" s="18"/>
+      <c r="CS41" s="17"/>
+      <c r="CT41" s="9"/>
+      <c r="CU41" s="9"/>
+      <c r="CV41" s="10"/>
     </row>
     <row r="42" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A42" s="49"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="18"/>
+      <c r="AO42" s="17"/>
+      <c r="AP42" s="9"/>
+      <c r="AQ42" s="9"/>
+      <c r="AR42" s="52"/>
+      <c r="AS42" s="11"/>
+      <c r="AT42" s="8"/>
+      <c r="AU42" s="18"/>
+      <c r="AV42" s="57"/>
+      <c r="AW42" s="9"/>
+      <c r="AX42" s="9"/>
+      <c r="AY42" s="10"/>
+      <c r="AZ42" s="11"/>
+      <c r="BA42" s="8"/>
+      <c r="BB42" s="18"/>
+      <c r="BC42" s="17"/>
+      <c r="BD42" s="9"/>
+      <c r="BE42" s="9"/>
+      <c r="BF42" s="10"/>
+      <c r="BG42" s="11"/>
+      <c r="BH42" s="8"/>
+      <c r="BI42" s="18"/>
+      <c r="BJ42" s="17"/>
+      <c r="BK42" s="9"/>
+      <c r="BL42" s="9"/>
+      <c r="BM42" s="10"/>
+      <c r="BN42" s="11"/>
+      <c r="BO42" s="8"/>
+      <c r="BP42" s="18"/>
+      <c r="BQ42" s="17"/>
+      <c r="BR42" s="9"/>
+      <c r="BS42" s="9"/>
+      <c r="BT42" s="10"/>
+      <c r="BU42" s="11"/>
+      <c r="BV42" s="8"/>
+      <c r="BW42" s="18"/>
+      <c r="BX42" s="17"/>
+      <c r="BY42" s="9"/>
+      <c r="BZ42" s="9"/>
+      <c r="CA42" s="10"/>
+      <c r="CB42" s="11"/>
+      <c r="CC42" s="8"/>
+      <c r="CD42" s="18"/>
+      <c r="CE42" s="17"/>
+      <c r="CF42" s="9"/>
+      <c r="CG42" s="9"/>
+      <c r="CH42" s="10"/>
+      <c r="CI42" s="11"/>
+      <c r="CJ42" s="8"/>
+      <c r="CK42" s="18"/>
+      <c r="CL42" s="17"/>
+      <c r="CM42" s="9"/>
+      <c r="CN42" s="9"/>
+      <c r="CO42" s="10"/>
+      <c r="CP42" s="11"/>
+      <c r="CQ42" s="8"/>
+      <c r="CR42" s="18"/>
+      <c r="CS42" s="17"/>
+      <c r="CT42" s="9"/>
+      <c r="CU42" s="9"/>
+      <c r="CV42" s="10"/>
     </row>
-    <row r="43" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A43" s="62" t="s">
-        <v>9</v>
-      </c>
+    <row r="43" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="49"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="31"/>
+      <c r="AB43" s="31"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="20"/>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="20"/>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="22"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="20"/>
+      <c r="AO43" s="20"/>
+      <c r="AP43" s="20"/>
+      <c r="AQ43" s="20"/>
+      <c r="AR43" s="53"/>
+      <c r="AS43" s="22"/>
+      <c r="AT43" s="20"/>
+      <c r="AU43" s="20"/>
+      <c r="AV43" s="64"/>
+      <c r="AW43" s="20"/>
+      <c r="AX43" s="20"/>
+      <c r="AY43" s="21"/>
+      <c r="AZ43" s="22"/>
+      <c r="BA43" s="20"/>
+      <c r="BB43" s="20"/>
+      <c r="BC43" s="20"/>
+      <c r="BD43" s="20"/>
+      <c r="BE43" s="20"/>
+      <c r="BF43" s="21"/>
+      <c r="BG43" s="22"/>
+      <c r="BH43" s="20"/>
+      <c r="BI43" s="20"/>
+      <c r="BJ43" s="20"/>
+      <c r="BK43" s="20"/>
+      <c r="BL43" s="20"/>
+      <c r="BM43" s="21"/>
+      <c r="BN43" s="22"/>
+      <c r="BO43" s="20"/>
+      <c r="BP43" s="20"/>
+      <c r="BQ43" s="20"/>
+      <c r="BR43" s="20"/>
+      <c r="BS43" s="20"/>
+      <c r="BT43" s="21"/>
+      <c r="BU43" s="22"/>
+      <c r="BV43" s="20"/>
+      <c r="BW43" s="20"/>
+      <c r="BX43" s="20"/>
+      <c r="BY43" s="20"/>
+      <c r="BZ43" s="20"/>
+      <c r="CA43" s="21"/>
+      <c r="CB43" s="22"/>
+      <c r="CC43" s="20"/>
+      <c r="CD43" s="20"/>
+      <c r="CE43" s="20"/>
+      <c r="CF43" s="20"/>
+      <c r="CG43" s="20"/>
+      <c r="CH43" s="21"/>
+      <c r="CI43" s="22"/>
+      <c r="CJ43" s="20"/>
+      <c r="CK43" s="20"/>
+      <c r="CL43" s="20"/>
+      <c r="CM43" s="20"/>
+      <c r="CN43" s="20"/>
+      <c r="CO43" s="21"/>
+      <c r="CP43" s="22"/>
+      <c r="CQ43" s="20"/>
+      <c r="CR43" s="20"/>
+      <c r="CS43" s="20"/>
+      <c r="CT43" s="20"/>
+      <c r="CU43" s="20"/>
+      <c r="CV43" s="21"/>
     </row>
     <row r="44" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
-        <v>10</v>
+      <c r="A44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="23">
+        <f>B3-SUM(B5:B43)</f>
+        <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A45" s="62" t="s">
-        <v>11</v>
+    <row r="45" spans="1:100" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A47"/>
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A48"/>
+      <c r="A48" s="62" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49"/>
+      <c r="A49" s="62" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51"/>
+      <c r="A50" s="62" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52"/>
@@ -6505,15 +6830,24 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53"/>
     </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="CP1:CV1"/>
-    <mergeCell ref="BG1:BM1"/>
-    <mergeCell ref="BN1:BT1"/>
-    <mergeCell ref="BU1:CA1"/>
-    <mergeCell ref="CB1:CH1"/>
-    <mergeCell ref="CI1:CO1"/>
     <mergeCell ref="AL1:AR1"/>
     <mergeCell ref="AS1:AY1"/>
     <mergeCell ref="AZ1:BF1"/>
@@ -6524,6 +6858,12 @@
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="CP1:CV1"/>
+    <mergeCell ref="BG1:BM1"/>
+    <mergeCell ref="BN1:BT1"/>
+    <mergeCell ref="BU1:CA1"/>
+    <mergeCell ref="CB1:CH1"/>
+    <mergeCell ref="CI1:CO1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
